--- a/cp1/chavalakh_fb-14_kot_fb-14_cp1/letters_not_cross_bigr_with_space.xlsx
+++ b/cp1/chavalakh_fb-14_kot_fb-14_cp1/letters_not_cross_bigr_with_space.xlsx
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.002291918940809469</v>
+        <v>0.004583837881618939</v>
       </c>
     </row>
     <row r="36">
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3.929462144844786e-05</v>
+        <v>7.858924289689573e-05</v>
       </c>
     </row>
     <row r="37">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.001076191469057491</v>
+        <v>0.002152382938114981</v>
       </c>
     </row>
     <row r="38">
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.00318126047522434</v>
+        <v>0.006362520950448681</v>
       </c>
     </row>
     <row r="39">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.003348062133617752</v>
+        <v>0.006696124267235503</v>
       </c>
     </row>
     <row r="40">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.001112278366306065</v>
+        <v>0.00222455673261213</v>
       </c>
     </row>
     <row r="41">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.001728963343731706</v>
+        <v>0.003457926687463412</v>
       </c>
     </row>
     <row r="42">
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.002570189015148478</v>
+        <v>0.005140378030296955</v>
       </c>
     </row>
     <row r="43">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.003868515385047194</v>
+        <v>0.007737030770094387</v>
       </c>
     </row>
     <row r="44">
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.007147611448367669</v>
+        <v>0.01429522289673534</v>
       </c>
     </row>
     <row r="45">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.003773085590100963</v>
+        <v>0.007546171180201926</v>
       </c>
     </row>
     <row r="46">
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.00111468415945597</v>
+        <v>0.00222936831891194</v>
       </c>
     </row>
     <row r="47">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.002292720871859437</v>
+        <v>0.004585441743718875</v>
       </c>
     </row>
     <row r="48">
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.002000817969670968</v>
+        <v>0.004001635939341936</v>
       </c>
     </row>
     <row r="49">
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.00155975589218839</v>
+        <v>0.003119511784376779</v>
       </c>
     </row>
     <row r="50">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.0007963175326185455</v>
+        <v>0.001592635065237091</v>
       </c>
     </row>
     <row r="51">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.007346490348759813</v>
+        <v>0.01469298069751963</v>
       </c>
     </row>
     <row r="52">
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.002166817697014411</v>
+        <v>0.004333635394028821</v>
       </c>
     </row>
     <row r="53">
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>7.137186344718081e-05</v>
+        <v>0.0001427437268943616</v>
       </c>
     </row>
     <row r="54">
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.0003512457998861258</v>
+        <v>0.0007024915997722516</v>
       </c>
     </row>
     <row r="55">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.002188469835363555</v>
+        <v>0.004376939670727111</v>
       </c>
     </row>
     <row r="56">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.001886943760575466</v>
+        <v>0.003773887521150932</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.004748233746862444</v>
+        <v>0.009496467493724889</v>
       </c>
     </row>
     <row r="58">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.0009951964330106896</v>
+        <v>0.001990392866021379</v>
       </c>
     </row>
     <row r="59">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.001854064587526765</v>
+        <v>0.003708129175053529</v>
       </c>
     </row>
     <row r="60">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.004161220218285632</v>
+        <v>0.008322440436571264</v>
       </c>
     </row>
     <row r="61">
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.008318430781321422</v>
+        <v>0.01663686156264284</v>
       </c>
     </row>
     <row r="62">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.0006182888395255776</v>
+        <v>0.001236577679051155</v>
       </c>
     </row>
     <row r="63">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.002477165013352152</v>
+        <v>0.004954330026704304</v>
       </c>
     </row>
     <row r="64">
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.0001339224853447101</v>
+        <v>0.0002678449706894201</v>
       </c>
     </row>
     <row r="65">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.0001443475889942983</v>
+        <v>0.0002886951779885965</v>
       </c>
     </row>
     <row r="66">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.001853262656476796</v>
+        <v>0.003706525312953592</v>
       </c>
     </row>
     <row r="67">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.002494807496451455</v>
+        <v>0.00498961499290291</v>
       </c>
     </row>
     <row r="68">
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.005040136649050914</v>
+        <v>0.01008027329810183</v>
       </c>
     </row>
     <row r="69">
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.002842043641087739</v>
+        <v>0.005684087282175478</v>
       </c>
     </row>
     <row r="70">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.002012846935420492</v>
+        <v>0.004025693870840985</v>
       </c>
     </row>
     <row r="71">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.002587029567197812</v>
+        <v>0.005174059134395625</v>
       </c>
     </row>
     <row r="72">
@@ -1141,7 +1141,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.001247002782700743</v>
+        <v>0.002494005565401487</v>
       </c>
     </row>
     <row r="73">
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.002295126665009342</v>
+        <v>0.004590253330018685</v>
       </c>
     </row>
     <row r="74">
@@ -1161,7 +1161,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.00155013271958877</v>
+        <v>0.003100265439177539</v>
       </c>
     </row>
     <row r="75">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.002721753983592491</v>
+        <v>0.005443507967184982</v>
       </c>
     </row>
     <row r="76">
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.001801939069278823</v>
+        <v>0.003603878138557647</v>
       </c>
     </row>
     <row r="77">
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.009047386105742627</v>
+        <v>0.01809477221148525</v>
       </c>
     </row>
     <row r="78">
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.0004362504911827681</v>
+        <v>0.0008725009823655363</v>
       </c>
     </row>
     <row r="79">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.0008853318791650293</v>
+        <v>0.001770663758330059</v>
       </c>
     </row>
     <row r="80">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.003668032622555113</v>
+        <v>0.007336065245110226</v>
       </c>
     </row>
     <row r="81">
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.007522915179752845</v>
+        <v>0.01504583035950569</v>
       </c>
     </row>
     <row r="82">
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>8.821241549651562e-06</v>
+        <v>1.764248309930312e-05</v>
       </c>
     </row>
     <row r="83">
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.002770671777640558</v>
+        <v>0.005541343555281117</v>
       </c>
     </row>
     <row r="84">
@@ -1261,7 +1261,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.002594246946647527</v>
+        <v>0.005188493893295055</v>
       </c>
     </row>
     <row r="85">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.003761858555401407</v>
+        <v>0.007523717110802813</v>
       </c>
     </row>
     <row r="86">
@@ -1281,7 +1281,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.002714536604142776</v>
+        <v>0.005429073208285552</v>
       </c>
     </row>
     <row r="87">
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.00182760086287781</v>
+        <v>0.00365520172575562</v>
       </c>
     </row>
     <row r="88">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.0005589459418279217</v>
+        <v>0.001117891883655843</v>
       </c>
     </row>
     <row r="89">
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.002113890247716501</v>
+        <v>0.004227780495433002</v>
       </c>
     </row>
     <row r="90">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.003206922268823327</v>
+        <v>0.006413844537646653</v>
       </c>
     </row>
     <row r="91">
@@ -1331,7 +1331,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.001266249127899983</v>
+        <v>0.002532498255799966</v>
       </c>
     </row>
     <row r="92">
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.002293522802909406</v>
+        <v>0.004587045605818811</v>
       </c>
     </row>
     <row r="93">
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.01210274340612194</v>
+        <v>0.02420548681224388</v>
       </c>
     </row>
     <row r="94">
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.003251028476571584</v>
+        <v>0.006502056953143169</v>
       </c>
     </row>
     <row r="95">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1.764248309930312e-05</v>
+        <v>3.528496619860625e-05</v>
       </c>
     </row>
     <row r="96">
@@ -1381,7 +1381,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.002652787913295215</v>
+        <v>0.00530557582659043</v>
       </c>
     </row>
     <row r="97">
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.002878130538336314</v>
+        <v>0.005756261076672628</v>
       </c>
     </row>
     <row r="98">
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.001491591752941082</v>
+        <v>0.002983183505882164</v>
       </c>
     </row>
     <row r="99">
@@ -1411,7 +1411,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>9.703365704616717e-05</v>
+        <v>0.0001940673140923343</v>
       </c>
     </row>
     <row r="100">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.0009222207074635723</v>
+        <v>0.001844441414927145</v>
       </c>
     </row>
     <row r="101">
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.005699323972124876</v>
+        <v>0.01139864794424975</v>
       </c>
     </row>
     <row r="102">
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.001198084988652676</v>
+        <v>0.002396169977305351</v>
       </c>
     </row>
     <row r="103">
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.00335367565096753</v>
+        <v>0.00670735130193506</v>
       </c>
     </row>
     <row r="104">
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.0006543757367741521</v>
+        <v>0.001308751473548304</v>
       </c>
     </row>
     <row r="105">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.005456338863984475</v>
+        <v>0.01091267772796895</v>
       </c>
     </row>
     <row r="106">
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.002831618537438151</v>
+        <v>0.005663237074876302</v>
       </c>
     </row>
     <row r="107">
@@ -1491,7 +1491,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.0001772267620429995</v>
+        <v>0.0003544535240859991</v>
       </c>
     </row>
     <row r="108">
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.002846053296337581</v>
+        <v>0.005692106592675162</v>
       </c>
     </row>
     <row r="109">
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.005813198181220378</v>
+        <v>0.01162639636244076</v>
       </c>
     </row>
     <row r="110">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.001030481399209296</v>
+        <v>0.002060962798418592</v>
       </c>
     </row>
     <row r="111">
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.0002004827624920809</v>
+        <v>0.0004009655249841619</v>
       </c>
     </row>
     <row r="112">
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.002539715635249681</v>
+        <v>0.005079431270499362</v>
       </c>
     </row>
     <row r="113">
@@ -1551,7 +1551,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.0004081829044338768</v>
+        <v>0.0008163658088677536</v>
       </c>
     </row>
     <row r="114">
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.00110506098685635</v>
+        <v>0.0022101219737127</v>
       </c>
     </row>
     <row r="115">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.0009358535353130338</v>
+        <v>0.001871707070626068</v>
       </c>
     </row>
     <row r="116">
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.0004105886975837817</v>
+        <v>0.0008211773951675635</v>
       </c>
     </row>
     <row r="117">
@@ -1591,7 +1591,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.0002405793149904971</v>
+        <v>0.0004811586299809942</v>
       </c>
     </row>
     <row r="118">
@@ -1601,7 +1601,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.001577398375287693</v>
+        <v>0.003154796750575385</v>
       </c>
     </row>
     <row r="119">
@@ -1611,7 +1611,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.007644006768298062</v>
+        <v>0.01528801353659612</v>
       </c>
     </row>
     <row r="120">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.003008043368431182</v>
+        <v>0.006016086736862365</v>
       </c>
     </row>
     <row r="121">
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.0008773125686653461</v>
+        <v>0.001754625137330692</v>
       </c>
     </row>
     <row r="122">
@@ -1641,7 +1641,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.0001491591752941082</v>
+        <v>0.0002983183505882164</v>
       </c>
     </row>
     <row r="123">
@@ -1651,7 +1651,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.004861306024907979</v>
+        <v>0.009722612049815957</v>
       </c>
     </row>
     <row r="124">
@@ -1661,7 +1661,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.001846847208077049</v>
+        <v>0.003693694416154099</v>
       </c>
     </row>
     <row r="125">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.001227756437501504</v>
+        <v>0.002455512875003007</v>
       </c>
     </row>
     <row r="126">
@@ -1681,7 +1681,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.00836734857536949</v>
+        <v>0.01673469715073898</v>
       </c>
     </row>
     <row r="127">
@@ -1691,7 +1691,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.001379321405945517</v>
+        <v>0.002758642811891034</v>
       </c>
     </row>
     <row r="128">
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.0001210915885452169</v>
+        <v>0.0002421831770904338</v>
       </c>
     </row>
     <row r="129">
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.001045718089158694</v>
+        <v>0.002091436178317388</v>
       </c>
     </row>
     <row r="130">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.0002542121428399586</v>
+        <v>0.0005084242856799173</v>
       </c>
     </row>
     <row r="131">
@@ -1731,7 +1731,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>6.335255294749758e-05</v>
+        <v>0.0001267051058949952</v>
       </c>
     </row>
     <row r="132">
@@ -1741,7 +1741,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.0004105886975837817</v>
+        <v>0.0008211773951675635</v>
       </c>
     </row>
     <row r="133">
@@ -1751,7 +1751,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.002624720326546323</v>
+        <v>0.005249440653092647</v>
       </c>
     </row>
     <row r="134">
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.00436330684287765</v>
+        <v>0.008726613685755299</v>
       </c>
     </row>
     <row r="135">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.0008508488440163915</v>
+        <v>0.001701697688032783</v>
       </c>
     </row>
     <row r="136">
@@ -1781,7 +1781,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.000857264292416138</v>
+        <v>0.001714528584832276</v>
       </c>
     </row>
     <row r="137">
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.0005934289769765596</v>
+        <v>0.001186857953953119</v>
       </c>
     </row>
     <row r="138">
@@ -1801,7 +1801,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>2.726565569892301e-05</v>
+        <v>5.453131139784602e-05</v>
       </c>
     </row>
     <row r="139">
@@ -1811,7 +1811,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.003390564479266073</v>
+        <v>0.006781128958532145</v>
       </c>
     </row>
     <row r="140">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.0001651977962934747</v>
+        <v>0.0003303955925869494</v>
       </c>
     </row>
     <row r="141">
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.0003400187651865693</v>
+        <v>0.0006800375303731385</v>
       </c>
     </row>
     <row r="142">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.00111468415945597</v>
+        <v>0.00222936831891194</v>
       </c>
     </row>
     <row r="143">
@@ -1851,7 +1851,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.002075397557318022</v>
+        <v>0.004150795114636043</v>
       </c>
     </row>
     <row r="144">
@@ -1861,7 +1861,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.002360083080056777</v>
+        <v>0.004720166160113553</v>
       </c>
     </row>
     <row r="145">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.0006623950472738354</v>
+        <v>0.001324790094547671</v>
       </c>
     </row>
     <row r="146">
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.003265463235471014</v>
+        <v>0.006530926470942029</v>
       </c>
     </row>
     <row r="147">
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.002111484454566596</v>
+        <v>0.004222968909133193</v>
       </c>
     </row>
     <row r="148">
@@ -1901,7 +1901,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.001879726381125751</v>
+        <v>0.003759452762251501</v>
       </c>
     </row>
     <row r="149">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.002550942669949238</v>
+        <v>0.005101885339898475</v>
       </c>
     </row>
     <row r="150">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.0001940673140923343</v>
+        <v>0.0003881346281846687</v>
       </c>
     </row>
     <row r="151">
@@ -1933,7 +1933,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.00128228774889935</v>
+        <v>0.002564575497798699</v>
       </c>
     </row>
     <row r="152">
@@ -1944,7 +1944,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>7.217379449714914e-06</v>
+        <v>1.443475889942983e-05</v>
       </c>
     </row>
     <row r="153">
@@ -1955,7 +1955,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1.36328278494615e-05</v>
+        <v>2.726565569892301e-05</v>
       </c>
     </row>
     <row r="154">
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.003180458544174372</v>
+        <v>0.006360917088348744</v>
       </c>
     </row>
     <row r="155">
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.00290860391823511</v>
+        <v>0.00581720783647022</v>
       </c>
     </row>
     <row r="156">
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.004243017185382401</v>
+        <v>0.008486034370764802</v>
       </c>
     </row>
     <row r="157">
@@ -1995,7 +1995,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.0002020866245920176</v>
+        <v>0.0004041732491840351</v>
       </c>
     </row>
     <row r="158">
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.001695282239633036</v>
+        <v>0.003390564479266073</v>
       </c>
     </row>
     <row r="159">
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.005948724528665026</v>
+        <v>0.01189744905733005</v>
       </c>
     </row>
     <row r="160">
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.001020056295559708</v>
+        <v>0.002040112591119416</v>
       </c>
     </row>
     <row r="161">
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.0001972750382922076</v>
+        <v>0.0003945500765844153</v>
       </c>
     </row>
     <row r="162">
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>2.405793149904971e-06</v>
+        <v>4.811586299809942e-06</v>
       </c>
     </row>
     <row r="163">
@@ -2055,7 +2055,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.000497999182030329</v>
+        <v>0.000995998364060658</v>
       </c>
     </row>
     <row r="164">
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.005106696926198286</v>
+        <v>0.01021339385239657</v>
       </c>
     </row>
     <row r="165">
@@ -2075,7 +2075,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>2.405793149904971e-05</v>
+        <v>4.811586299809942e-05</v>
       </c>
     </row>
     <row r="166">
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.0006174869084756093</v>
+        <v>0.001234973816951219</v>
       </c>
     </row>
     <row r="167">
@@ -2095,7 +2095,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.001201292712852549</v>
+        <v>0.002402585425705098</v>
       </c>
     </row>
     <row r="168">
@@ -2105,7 +2105,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.002190875628513461</v>
+        <v>0.004381751257026921</v>
       </c>
     </row>
     <row r="169">
@@ -2115,7 +2115,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>8.179696709676901e-05</v>
+        <v>0.000163593934193538</v>
       </c>
     </row>
     <row r="170">
@@ -2125,7 +2125,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.001156384574054323</v>
+        <v>0.002312769148108646</v>
       </c>
     </row>
     <row r="171">
@@ -2135,7 +2135,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.0004009655249841619</v>
+        <v>0.0008019310499683237</v>
       </c>
     </row>
     <row r="172">
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>5.773903559771931e-05</v>
+        <v>0.0001154780711954386</v>
       </c>
     </row>
     <row r="173">
@@ -2155,7 +2155,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.0002309561423908772</v>
+        <v>0.0004619122847817545</v>
       </c>
     </row>
     <row r="174">
@@ -2165,7 +2165,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1.042510364958821e-05</v>
+        <v>2.085020729917642e-05</v>
       </c>
     </row>
     <row r="175">
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.000141139864794425</v>
+        <v>0.00028227972958885</v>
       </c>
     </row>
     <row r="176">
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.001652779893984715</v>
+        <v>0.003305559787969431</v>
       </c>
     </row>
     <row r="177">
@@ -2195,7 +2195,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.001364886647046087</v>
+        <v>0.002729773294092174</v>
       </c>
     </row>
     <row r="178">
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.001068172158557807</v>
+        <v>0.002136344317115614</v>
       </c>
     </row>
     <row r="179">
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.0002582217980898002</v>
+        <v>0.0005164435961796005</v>
       </c>
     </row>
     <row r="180">
@@ -2225,7 +2225,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.008159648433427693</v>
+        <v>0.01631929686685539</v>
       </c>
     </row>
     <row r="181">
@@ -2235,7 +2235,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.0002766662122390717</v>
+        <v>0.0005533324244781434</v>
       </c>
     </row>
     <row r="182">
@@ -2245,7 +2245,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.0003841249729348271</v>
+        <v>0.0007682499458696541</v>
       </c>
     </row>
     <row r="183">
@@ -2255,7 +2255,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.001044114227058757</v>
+        <v>0.002088228454117515</v>
       </c>
     </row>
     <row r="184">
@@ -2265,7 +2265,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.003271878683870761</v>
+        <v>0.006543757367741522</v>
       </c>
     </row>
     <row r="185">
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.002244605008861338</v>
+        <v>0.004489210017722676</v>
       </c>
     </row>
     <row r="186">
@@ -2285,7 +2285,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.0001996808314421126</v>
+        <v>0.0003993616628842252</v>
       </c>
     </row>
     <row r="187">
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.0009526940873623686</v>
+        <v>0.001905388174724737</v>
       </c>
     </row>
     <row r="188">
@@ -2305,7 +2305,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>9.222207074635723e-05</v>
+        <v>0.0001844441414927145</v>
       </c>
     </row>
     <row r="189">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.0006431487020745956</v>
+        <v>0.001286297404149191</v>
       </c>
     </row>
     <row r="190">
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.001628721962485665</v>
+        <v>0.003257443924971331</v>
       </c>
     </row>
     <row r="191">
@@ -2335,7 +2335,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.003077009438728458</v>
+        <v>0.006154018877456916</v>
       </c>
     </row>
     <row r="192">
@@ -2345,7 +2345,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.0003608689724857457</v>
+        <v>0.0007217379449714913</v>
       </c>
     </row>
     <row r="193">
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.002128325006615931</v>
+        <v>0.004256650013231862</v>
       </c>
     </row>
     <row r="194">
@@ -2365,7 +2365,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.0007449939454205728</v>
+        <v>0.001489987890841146</v>
       </c>
     </row>
     <row r="195">
@@ -2375,7 +2375,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.0004234195943832749</v>
+        <v>0.0008468391887665499</v>
       </c>
     </row>
     <row r="196">
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.001260635610550205</v>
+        <v>0.00252127122110041</v>
       </c>
     </row>
     <row r="197">
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.0002197291076913207</v>
+        <v>0.0004394582153826414</v>
       </c>
     </row>
     <row r="198">
@@ -2405,7 +2405,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.001865291622226321</v>
+        <v>0.003730583244452642</v>
       </c>
     </row>
     <row r="199">
@@ -2415,7 +2415,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.002751425432441318</v>
+        <v>0.005502850864882637</v>
       </c>
     </row>
     <row r="200">
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.001080201124307332</v>
+        <v>0.002160402248614664</v>
       </c>
     </row>
     <row r="201">
@@ -2435,7 +2435,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.0009366554663630021</v>
+        <v>0.001873310932726004</v>
       </c>
     </row>
     <row r="202">
@@ -2445,7 +2445,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.001975156176071981</v>
+        <v>0.003950312352143963</v>
       </c>
     </row>
     <row r="203">
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.001558953961138421</v>
+        <v>0.003117907922276843</v>
       </c>
     </row>
     <row r="204">
@@ -2465,7 +2465,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.0007963175326185455</v>
+        <v>0.001592635065237091</v>
       </c>
     </row>
     <row r="205">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.0002285503492409723</v>
+        <v>0.0004571006984819445</v>
       </c>
     </row>
     <row r="206">
@@ -2485,7 +2485,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.0005910231838266546</v>
+        <v>0.001182046367653309</v>
       </c>
     </row>
     <row r="207">
@@ -2495,7 +2495,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.0004250234564832116</v>
+        <v>0.0008500469129664232</v>
       </c>
     </row>
     <row r="208">
@@ -2505,7 +2505,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.0008700951892156312</v>
+        <v>0.001740190378431262</v>
       </c>
     </row>
     <row r="209">
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.002728169431992237</v>
+        <v>0.005456338863984475</v>
       </c>
     </row>
     <row r="210">
@@ -2525,7 +2525,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.0004619122847817545</v>
+        <v>0.0009238245695635089</v>
       </c>
     </row>
     <row r="211">
@@ -2535,7 +2535,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.0009077859485641424</v>
+        <v>0.001815571897128285</v>
       </c>
     </row>
     <row r="212">
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.0009222207074635723</v>
+        <v>0.001844441414927145</v>
       </c>
     </row>
     <row r="213">
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.0004506852500821979</v>
+        <v>0.0009013705001643959</v>
       </c>
     </row>
     <row r="214">
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.0002582217980898002</v>
+        <v>0.0005164435961796005</v>
       </c>
     </row>
     <row r="215">
@@ -2575,7 +2575,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>9.863751914610382e-05</v>
+        <v>0.0001972750382922076</v>
       </c>
     </row>
     <row r="216">
@@ -2585,7 +2585,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.0006880568408728217</v>
+        <v>0.001376113681745643</v>
       </c>
     </row>
     <row r="217">
@@ -2595,7 +2595,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.00179391975877914</v>
+        <v>0.00358783951755828</v>
       </c>
     </row>
     <row r="218">
@@ -2605,7 +2605,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.0001002413812460405</v>
+        <v>0.0002004827624920809</v>
       </c>
     </row>
     <row r="219">
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.0008660855339657896</v>
+        <v>0.001732171067931579</v>
       </c>
     </row>
     <row r="220">
@@ -2625,7 +2625,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.0003408206962365376</v>
+        <v>0.0006816413924730752</v>
       </c>
     </row>
     <row r="221">
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.001275070369449635</v>
+        <v>0.002550140738899269</v>
       </c>
     </row>
     <row r="222">
@@ -2645,7 +2645,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>4.410620774825781e-05</v>
+        <v>8.821241549651561e-05</v>
       </c>
     </row>
     <row r="223">
@@ -2655,7 +2655,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.0005645594591776999</v>
+        <v>0.0011291189183554</v>
       </c>
     </row>
     <row r="224">
@@ -2665,7 +2665,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.0007089070481719981</v>
+        <v>0.001417814096343996</v>
       </c>
     </row>
     <row r="225">
@@ -2675,7 +2675,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.001572586788987883</v>
+        <v>0.003145173577975766</v>
       </c>
     </row>
     <row r="226">
@@ -2685,7 +2685,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.0002165213834914474</v>
+        <v>0.0004330427669828948</v>
       </c>
     </row>
     <row r="227">
@@ -2695,7 +2695,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.0004514871811321663</v>
+        <v>0.0009029743622643325</v>
       </c>
     </row>
     <row r="228">
@@ -2705,7 +2705,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.000113874209095502</v>
+        <v>0.0002277484181910039</v>
       </c>
     </row>
     <row r="229">
@@ -2715,7 +2715,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.001235775748001187</v>
+        <v>0.002471551496002374</v>
       </c>
     </row>
     <row r="230">
@@ -2725,7 +2725,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.003561375792909326</v>
+        <v>0.007122751585818651</v>
       </c>
     </row>
     <row r="231">
@@ -2735,7 +2735,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.0004562987674319762</v>
+        <v>0.0009125975348639524</v>
       </c>
     </row>
     <row r="232">
@@ -2745,7 +2745,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.0005581440107779533</v>
+        <v>0.001116288021555907</v>
       </c>
     </row>
     <row r="233">
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.003854080626147764</v>
+        <v>0.007708161252295528</v>
       </c>
     </row>
     <row r="234">
@@ -2765,7 +2765,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.0006648008404237404</v>
+        <v>0.001329601680847481</v>
       </c>
     </row>
     <row r="235">
@@ -2775,7 +2775,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.003091444197627888</v>
+        <v>0.006182888395255776</v>
       </c>
     </row>
     <row r="236">
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.0005533324244781434</v>
+        <v>0.001106664848956287</v>
       </c>
     </row>
     <row r="237">
@@ -2795,7 +2795,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.0004571006984819445</v>
+        <v>0.0009142013969638891</v>
       </c>
     </row>
     <row r="238">
@@ -2805,7 +2805,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0.001833214380227588</v>
+        <v>0.003666428760455176</v>
       </c>
     </row>
     <row r="239">
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>5.453131139784602e-05</v>
+        <v>0.000109062622795692</v>
       </c>
     </row>
     <row r="240">
@@ -2825,7 +2825,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.00027746814328904</v>
+        <v>0.00055493628657808</v>
       </c>
     </row>
     <row r="241">
@@ -2835,7 +2835,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.0003255840062871394</v>
+        <v>0.0006511680125742789</v>
       </c>
     </row>
     <row r="242">
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.0002927048332384382</v>
+        <v>0.0005854096664768764</v>
       </c>
     </row>
     <row r="243">
@@ -2855,7 +2855,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.001407388992694408</v>
+        <v>0.002814777985388816</v>
       </c>
     </row>
     <row r="244">
@@ -2865,7 +2865,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0.002400981563605161</v>
+        <v>0.004801963127210322</v>
       </c>
     </row>
     <row r="245">
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>2.646372464895468e-05</v>
+        <v>5.292744929790937e-05</v>
       </c>
     </row>
     <row r="246">
@@ -2885,7 +2885,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.0002606275912397052</v>
+        <v>0.0005212551824794105</v>
       </c>
     </row>
     <row r="247">
@@ -2895,7 +2895,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.000141139864794425</v>
+        <v>0.00028227972958885</v>
       </c>
     </row>
     <row r="248">
@@ -2905,7 +2905,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.0006463564262744689</v>
+        <v>0.001292712852548938</v>
       </c>
     </row>
     <row r="249">
@@ -2915,7 +2915,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0.0006102695290258944</v>
+        <v>0.001220539058051789</v>
       </c>
     </row>
     <row r="250">
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0.0007722596011194957</v>
+        <v>0.001544519202238991</v>
       </c>
     </row>
     <row r="251">
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.0007650422216697808</v>
+        <v>0.001530084443339562</v>
       </c>
     </row>
     <row r="252">
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.0007048973929221565</v>
+        <v>0.001409794785844313</v>
       </c>
     </row>
     <row r="253">
@@ -2955,7 +2955,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0.00180354293137876</v>
+        <v>0.00360708586275752</v>
       </c>
     </row>
     <row r="254">
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.0003279897994370444</v>
+        <v>0.0006559795988740888</v>
       </c>
     </row>
     <row r="255">
@@ -2975,7 +2975,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.0006287139431751658</v>
+        <v>0.001257427886350332</v>
       </c>
     </row>
     <row r="256">
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.0008805202928652195</v>
+        <v>0.001761040585730439</v>
       </c>
     </row>
     <row r="257">
@@ -2995,7 +2995,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.0002012846935420493</v>
+        <v>0.0004025693870840985</v>
       </c>
     </row>
     <row r="258">
@@ -3005,7 +3005,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0.0002702507638393251</v>
+        <v>0.0005405015276786502</v>
       </c>
     </row>
     <row r="259">
@@ -3015,7 +3015,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0.001328799749797512</v>
+        <v>0.002657599499595025</v>
       </c>
     </row>
     <row r="260">
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0.0001355263474446467</v>
+        <v>0.0002710526948892934</v>
       </c>
     </row>
     <row r="261">
@@ -3035,7 +3035,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.0002325600044908139</v>
+        <v>0.0004651200089816277</v>
       </c>
     </row>
     <row r="262">
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.001566973271638105</v>
+        <v>0.003133946543276209</v>
       </c>
     </row>
     <row r="263">
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.002254228181460958</v>
+        <v>0.004508456362921916</v>
       </c>
     </row>
     <row r="264">
@@ -3065,7 +3065,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>1.924634519923977e-05</v>
+        <v>3.849269039847954e-05</v>
       </c>
     </row>
     <row r="265">
@@ -3075,7 +3075,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>5.052165614800439e-05</v>
+        <v>0.0001010433122960088</v>
       </c>
     </row>
     <row r="266">
@@ -3085,7 +3085,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0.0004466755948323563</v>
+        <v>0.0008933511896647127</v>
       </c>
     </row>
     <row r="267">
@@ -3095,7 +3095,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0.0009174091211637623</v>
+        <v>0.001834818242327525</v>
       </c>
     </row>
     <row r="268">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0.000577390355977193</v>
+        <v>0.001154780711954386</v>
       </c>
     </row>
     <row r="269">
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0.002122711489266153</v>
+        <v>0.004245422978532306</v>
       </c>
     </row>
     <row r="270">
@@ -3125,7 +3125,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0.001566171340588136</v>
+        <v>0.003132342681176272</v>
       </c>
     </row>
     <row r="271">
@@ -3135,7 +3135,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0.0005974386322264012</v>
+        <v>0.001194877264452802</v>
       </c>
     </row>
     <row r="272">
@@ -3145,7 +3145,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.000643950633124564</v>
+        <v>0.001287901266249128</v>
       </c>
     </row>
     <row r="273">
@@ -3155,7 +3155,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0.0002277484181910039</v>
+        <v>0.0004554968363820079</v>
       </c>
     </row>
     <row r="274">
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0.001054539330708346</v>
+        <v>0.002109078661416691</v>
       </c>
     </row>
     <row r="275">
@@ -3175,7 +3175,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0.0001892557277925244</v>
+        <v>0.0003785114555850488</v>
       </c>
     </row>
     <row r="276">
@@ -3185,7 +3185,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0.000198076969342176</v>
+        <v>0.0003961539386843519</v>
       </c>
     </row>
     <row r="277">
@@ -3195,7 +3195,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0.0002109078661416691</v>
+        <v>0.0004218157322833383</v>
       </c>
     </row>
     <row r="278">
@@ -3205,7 +3205,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0.002073793695218085</v>
+        <v>0.004147587390436171</v>
       </c>
     </row>
     <row r="279">
@@ -3215,7 +3215,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0.001429041131043553</v>
+        <v>0.002858082262087106</v>
       </c>
     </row>
     <row r="280">
@@ -3225,7 +3225,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0.0001764248309930312</v>
+        <v>0.0003528496619860625</v>
       </c>
     </row>
     <row r="281">
@@ -3235,7 +3235,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0.0009230226385135406</v>
+        <v>0.001846045277027081</v>
       </c>
     </row>
     <row r="282">
@@ -3245,7 +3245,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0.002141155903415425</v>
+        <v>0.004282311806830849</v>
       </c>
     </row>
     <row r="283">
@@ -3255,7 +3255,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0.001159592298254196</v>
+        <v>0.002319184596508392</v>
       </c>
     </row>
     <row r="284">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0.001410596716894281</v>
+        <v>0.002821193433788563</v>
       </c>
     </row>
     <row r="285">
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0.001093032021106825</v>
+        <v>0.00218606404221365</v>
       </c>
     </row>
     <row r="286">
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0.004455528913624007</v>
+        <v>0.008911057827248013</v>
       </c>
     </row>
     <row r="287">
@@ -3295,7 +3295,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0.001063360572257997</v>
+        <v>0.002126721144515994</v>
       </c>
     </row>
     <row r="288">
@@ -3305,7 +3305,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0.0006343274605249441</v>
+        <v>0.001268654921049888</v>
       </c>
     </row>
     <row r="289">
@@ -3315,7 +3315,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0.0006471583573244373</v>
+        <v>0.001294316714648875</v>
       </c>
     </row>
     <row r="290">
@@ -3325,7 +3325,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0.0004691296642314694</v>
+        <v>0.0009382593284629388</v>
       </c>
     </row>
     <row r="291">
@@ -3335,7 +3335,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0.003384149030866326</v>
+        <v>0.006768298061732652</v>
       </c>
     </row>
     <row r="292">
@@ -3345,7 +3345,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>7.77873118469274e-05</v>
+        <v>0.0001555746236938548</v>
       </c>
     </row>
     <row r="293">
@@ -3355,7 +3355,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0.0003055357300379313</v>
+        <v>0.0006110714600758626</v>
       </c>
     </row>
     <row r="294">
@@ -3365,7 +3365,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0.0001002413812460405</v>
+        <v>0.0002004827624920809</v>
       </c>
     </row>
     <row r="295">
@@ -3375,7 +3375,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0.0001603862099936648</v>
+        <v>0.0003207724199873295</v>
       </c>
     </row>
     <row r="296">
@@ -3385,7 +3385,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0.001478760856141589</v>
+        <v>0.002957521712283178</v>
       </c>
     </row>
     <row r="297">
@@ -3395,7 +3395,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0.0002838835916887866</v>
+        <v>0.0005677671833775732</v>
       </c>
     </row>
     <row r="298">
@@ -3405,7 +3405,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0.0006247042879253242</v>
+        <v>0.001249408575850648</v>
       </c>
     </row>
     <row r="299">
@@ -3415,7 +3415,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0.0008444333956166449</v>
+        <v>0.00168886679123329</v>
       </c>
     </row>
     <row r="300">
@@ -3425,7 +3425,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0.0004450717327324197</v>
+        <v>0.0008901434654648393</v>
       </c>
     </row>
     <row r="301">
@@ -3435,7 +3435,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0.0003608689724857457</v>
+        <v>0.0007217379449714913</v>
       </c>
     </row>
     <row r="302">
@@ -3445,7 +3445,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0.0005092262167298856</v>
+        <v>0.001018452433459771</v>
       </c>
     </row>
     <row r="303">
@@ -3455,7 +3455,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0.0001459514510942349</v>
+        <v>0.0002919029021884698</v>
       </c>
     </row>
     <row r="304">
@@ -3465,7 +3465,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0.0002510044186400853</v>
+        <v>0.0005020088372801706</v>
       </c>
     </row>
     <row r="305">
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0.0004587045605818811</v>
+        <v>0.0009174091211637623</v>
       </c>
     </row>
     <row r="306">
@@ -3485,7 +3485,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0.001636741272985349</v>
+        <v>0.003273482545970697</v>
       </c>
     </row>
     <row r="307">
@@ -3495,7 +3495,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0.002623918395496355</v>
+        <v>0.00524783679099271</v>
       </c>
     </row>
     <row r="308">
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0.0003512457998861258</v>
+        <v>0.0007024915997722516</v>
       </c>
     </row>
     <row r="309">
@@ -3515,7 +3515,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0.001570180995837978</v>
+        <v>0.003140361991675956</v>
       </c>
     </row>
     <row r="310">
@@ -3525,7 +3525,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0.0006239023568753558</v>
+        <v>0.001247804713750712</v>
       </c>
     </row>
     <row r="311">
@@ -3535,7 +3535,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0.0004402601464326097</v>
+        <v>0.0008805202928652195</v>
       </c>
     </row>
     <row r="312">
@@ -3545,7 +3545,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0.0002149175213915108</v>
+        <v>0.0004298350427830215</v>
       </c>
     </row>
     <row r="313">
@@ -3555,7 +3555,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0.002619106809196545</v>
+        <v>0.00523821361839309</v>
       </c>
     </row>
     <row r="314">
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>7.457958764705411e-05</v>
+        <v>0.0001491591752941082</v>
       </c>
     </row>
     <row r="315">
@@ -3575,7 +3575,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0.0005180474582795371</v>
+        <v>0.001036094916559074</v>
       </c>
     </row>
     <row r="316">
@@ -3585,7 +3585,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>4.250234564832116e-05</v>
+        <v>8.500469129664231e-05</v>
       </c>
     </row>
     <row r="317">
@@ -3595,7 +3595,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0.0001026471743959454</v>
+        <v>0.0002052943487918909</v>
       </c>
     </row>
     <row r="318">
@@ -3605,7 +3605,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0.0007201340828715547</v>
+        <v>0.001440268165743109</v>
       </c>
     </row>
     <row r="319">
@@ -3615,7 +3615,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0.0004643180779316594</v>
+        <v>0.0009286361558633188</v>
       </c>
     </row>
     <row r="320">
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0.0006968780824224733</v>
+        <v>0.001393756164844947</v>
       </c>
     </row>
     <row r="321">
@@ -3635,7 +3635,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0.0004747431815812477</v>
+        <v>0.0009494863631624953</v>
       </c>
     </row>
     <row r="322">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0.0001074587606957554</v>
+        <v>0.0002149175213915108</v>
       </c>
     </row>
     <row r="323">
@@ -3655,7 +3655,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>8.179696709676901e-05</v>
+        <v>0.000163593934193538</v>
       </c>
     </row>
     <row r="324">
@@ -3665,7 +3665,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0.0007682499458696541</v>
+        <v>0.001536499891739308</v>
       </c>
     </row>
     <row r="325">
@@ -3675,7 +3675,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0.0001427437268943616</v>
+        <v>0.0002854874537887232</v>
       </c>
     </row>
     <row r="326">
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0.0003825211108348904</v>
+        <v>0.0007650422216697808</v>
       </c>
     </row>
     <row r="327">
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>2.806758674889133e-05</v>
+        <v>5.613517349778266e-05</v>
       </c>
     </row>
     <row r="328">
@@ -3705,7 +3705,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>5.453131139784602e-05</v>
+        <v>0.000109062622795692</v>
       </c>
     </row>
     <row r="329">
@@ -3715,7 +3715,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0.0003191685578873928</v>
+        <v>0.0006383371157747857</v>
       </c>
     </row>
     <row r="330">
@@ -3725,7 +3725,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0.000777873118469274</v>
+        <v>0.001555746236938548</v>
       </c>
     </row>
     <row r="331">
@@ -3735,7 +3735,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0.0002870913158886599</v>
+        <v>0.0005741826317773198</v>
       </c>
     </row>
     <row r="332">
@@ -3745,7 +3745,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>5.132358719797272e-05</v>
+        <v>0.0001026471743959454</v>
       </c>
     </row>
     <row r="333">
@@ -3755,7 +3755,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>2.886951779885965e-05</v>
+        <v>5.773903559771931e-05</v>
       </c>
     </row>
     <row r="334">
@@ -3765,7 +3765,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0.0002806758674889133</v>
+        <v>0.0005613517349778266</v>
       </c>
     </row>
     <row r="335">
@@ -3775,7 +3775,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0.0005212551824794105</v>
+        <v>0.001042510364958821</v>
       </c>
     </row>
     <row r="336">
@@ -3785,7 +3785,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0.0004250234564832116</v>
+        <v>0.0008500469129664232</v>
       </c>
     </row>
     <row r="337">
@@ -3795,7 +3795,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0.0002710526948892934</v>
+        <v>0.0005421053897785869</v>
       </c>
     </row>
     <row r="338">
@@ -3805,7 +3805,7 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>9.542979494623052e-05</v>
+        <v>0.000190859589892461</v>
       </c>
     </row>
     <row r="339">
@@ -3815,7 +3815,7 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0.0005388976655787135</v>
+        <v>0.001077795331157427</v>
       </c>
     </row>
     <row r="340">
@@ -3825,7 +3825,7 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>0.0008067426362681337</v>
+        <v>0.001613485272536267</v>
       </c>
     </row>
     <row r="341">
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>3.207724199873295e-06</v>
+        <v>6.41544839974659e-06</v>
       </c>
     </row>
     <row r="342">
@@ -3845,7 +3845,7 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0.0003985597318342569</v>
+        <v>0.0007971194636685137</v>
       </c>
     </row>
     <row r="343">
@@ -3855,7 +3855,7 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0.0001082606917457237</v>
+        <v>0.0002165213834914474</v>
       </c>
     </row>
     <row r="344">
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0.0004571006984819445</v>
+        <v>0.0009142013969638891</v>
       </c>
     </row>
     <row r="345">
@@ -3875,7 +3875,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>0.0009903848467108798</v>
+        <v>0.00198076969342176</v>
       </c>
     </row>
     <row r="346">
@@ -3885,7 +3885,7 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0.0001868499346426194</v>
+        <v>0.0003736998692852389</v>
       </c>
     </row>
     <row r="347">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0.0007121147723718714</v>
+        <v>0.001424229544743743</v>
       </c>
     </row>
     <row r="348">
@@ -3905,7 +3905,7 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0.0002068982108918275</v>
+        <v>0.0004137964217836551</v>
       </c>
     </row>
     <row r="349">
@@ -3915,7 +3915,7 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>0.0002758642811891034</v>
+        <v>0.0005517285623782067</v>
       </c>
     </row>
     <row r="350">
@@ -3925,7 +3925,7 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>0.000255014073889927</v>
+        <v>0.0005100281477798539</v>
       </c>
     </row>
     <row r="351">
@@ -3935,7 +3935,7 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>1.603862099936647e-06</v>
+        <v>3.207724199873295e-06</v>
       </c>
     </row>
     <row r="352">
@@ -3945,7 +3945,7 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>9.542979494623052e-05</v>
+        <v>0.000190859589892461</v>
       </c>
     </row>
     <row r="353">
@@ -3955,7 +3955,7 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>6.976800134724416e-05</v>
+        <v>0.0001395360026944883</v>
       </c>
     </row>
     <row r="354">
@@ -3965,7 +3965,7 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0.0003560573861859357</v>
+        <v>0.0007121147723718714</v>
       </c>
     </row>
     <row r="355">
@@ -3975,7 +3975,7 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>0.0002886951779885965</v>
+        <v>0.000577390355977193</v>
       </c>
     </row>
     <row r="356">
@@ -3985,7 +3985,7 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>0.0008308005677671833</v>
+        <v>0.001661601135534367</v>
       </c>
     </row>
     <row r="357">
@@ -3995,7 +3995,7 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0.0002742604190891667</v>
+        <v>0.0005485208381783334</v>
       </c>
     </row>
     <row r="358">
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>2.806758674889133e-05</v>
+        <v>5.613517349778266e-05</v>
       </c>
     </row>
     <row r="359">
@@ -4015,7 +4015,7 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>0.0002959125574383114</v>
+        <v>0.0005918251148766229</v>
       </c>
     </row>
     <row r="360">
@@ -4025,7 +4025,7 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>0.0002630333843896102</v>
+        <v>0.0005260667687792204</v>
       </c>
     </row>
     <row r="361">
@@ -4035,7 +4035,7 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>0.0003728979382352705</v>
+        <v>0.0007457958764705411</v>
       </c>
     </row>
     <row r="362">
@@ -4045,7 +4045,7 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0.001427437268943616</v>
+        <v>0.002854874537887232</v>
       </c>
     </row>
     <row r="363">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>0.0003753037313851755</v>
+        <v>0.000750607462770351</v>
       </c>
     </row>
     <row r="364">
@@ -4065,7 +4065,7 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>3.207724199873295e-06</v>
+        <v>6.41544839974659e-06</v>
       </c>
     </row>
     <row r="365">
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>9.943945019607215e-05</v>
+        <v>0.0001988789003921443</v>
       </c>
     </row>
     <row r="366">
@@ -4085,7 +4085,7 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>0.0001178838643453436</v>
+        <v>0.0002357677286906872</v>
       </c>
     </row>
     <row r="367">
@@ -4095,7 +4095,7 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>0.0003945500765844153</v>
+        <v>0.0007891001531688305</v>
       </c>
     </row>
     <row r="368">
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0.0007225398760214597</v>
+        <v>0.001445079752042919</v>
       </c>
     </row>
     <row r="369">
@@ -4115,7 +4115,7 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>0.0006006463564262745</v>
+        <v>0.001201292712852549</v>
       </c>
     </row>
     <row r="370">
@@ -4125,7 +4125,7 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>0.0001234973816951219</v>
+        <v>0.0002469947633902437</v>
       </c>
     </row>
     <row r="371">
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>0.0002365696597406555</v>
+        <v>0.000473139319481311</v>
       </c>
     </row>
     <row r="372">
@@ -4145,7 +4145,7 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>0.0004579026295319129</v>
+        <v>0.0009158052590638257</v>
       </c>
     </row>
     <row r="373">
@@ -4155,7 +4155,7 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>0.0001868499346426194</v>
+        <v>0.0003736998692852389</v>
       </c>
     </row>
     <row r="374">
@@ -4165,7 +4165,7 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>0.0002710526948892934</v>
+        <v>0.0005421053897785869</v>
       </c>
     </row>
     <row r="375">
@@ -4175,7 +4175,7 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>8.340082919670566e-05</v>
+        <v>0.0001668016583934113</v>
       </c>
     </row>
     <row r="376">
@@ -4185,7 +4185,7 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>0.0004097867665338134</v>
+        <v>0.0008195735330676268</v>
       </c>
     </row>
     <row r="377">
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>0.0001651977962934747</v>
+        <v>0.0003303955925869494</v>
       </c>
     </row>
     <row r="378">
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>3.207724199873295e-06</v>
+        <v>6.41544839974659e-06</v>
       </c>
     </row>
     <row r="379">
@@ -4215,7 +4215,7 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0.0002373715907906238</v>
+        <v>0.0004747431815812477</v>
       </c>
     </row>
     <row r="380">
@@ -4225,7 +4225,7 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0.0001443475889942983</v>
+        <v>0.0002886951779885965</v>
       </c>
     </row>
     <row r="381">
@@ -4235,7 +4235,7 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>0.001732972998981548</v>
+        <v>0.003465945997963095</v>
       </c>
     </row>
     <row r="382">
@@ -4245,7 +4245,7 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>2.085020729917642e-05</v>
+        <v>4.170041459835283e-05</v>
       </c>
     </row>
     <row r="383">
@@ -4255,7 +4255,7 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>6.816413924730751e-05</v>
+        <v>0.000136328278494615</v>
       </c>
     </row>
     <row r="384">
@@ -4265,7 +4265,7 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0.00027265655698923</v>
+        <v>0.0005453131139784601</v>
       </c>
     </row>
     <row r="385">
@@ -4275,7 +4275,7 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>0.0004170041459835283</v>
+        <v>0.0008340082919670567</v>
       </c>
     </row>
     <row r="386">
@@ -4285,7 +4285,7 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>0.0002020866245920176</v>
+        <v>0.0004041732491840351</v>
       </c>
     </row>
     <row r="387">
@@ -4295,7 +4295,7 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>0.0006808394614231069</v>
+        <v>0.001361678922846214</v>
       </c>
     </row>
     <row r="388">
@@ -4305,7 +4305,7 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>0.0004522891121821346</v>
+        <v>0.0009045782243642692</v>
       </c>
     </row>
     <row r="389">
@@ -4315,7 +4315,7 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0.0003769075934851121</v>
+        <v>0.0007538151869702243</v>
       </c>
     </row>
     <row r="390">
@@ -4325,7 +4325,7 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>0.0001050529675458504</v>
+        <v>0.0002101059350917008</v>
       </c>
     </row>
     <row r="391">
@@ -4335,7 +4335,7 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>0.0006607911851738988</v>
+        <v>0.001321582370347798</v>
       </c>
     </row>
     <row r="392">
@@ -4345,7 +4345,7 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>0.0004274292496331165</v>
+        <v>0.0008548584992662331</v>
       </c>
     </row>
     <row r="393">
@@ -4356,7 +4356,7 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>0.000165999727343443</v>
+        <v>0.000331999454686886</v>
       </c>
     </row>
     <row r="394">
@@ -4366,7 +4366,7 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>3.769075934851121e-05</v>
+        <v>7.538151869702243e-05</v>
       </c>
     </row>
     <row r="395">
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>0.0001451495200442666</v>
+        <v>0.0002902990400885332</v>
       </c>
     </row>
     <row r="396">
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>0.000255014073889927</v>
+        <v>0.0005100281477798539</v>
       </c>
     </row>
     <row r="397">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>0.0001595842789436964</v>
+        <v>0.0003191685578873928</v>
       </c>
     </row>
     <row r="398">
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>0.0002285503492409723</v>
+        <v>0.0004571006984819445</v>
       </c>
     </row>
     <row r="399">
@@ -4416,7 +4416,7 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>0.0007073031860720616</v>
+        <v>0.001414606372144123</v>
       </c>
     </row>
     <row r="400">
@@ -4427,7 +4427,7 @@
         </is>
       </c>
       <c r="B400" t="n">
-        <v>2.566179359898636e-05</v>
+        <v>5.132358719797272e-05</v>
       </c>
     </row>
     <row r="401">
@@ -4438,7 +4438,7 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>0.0001916615209424294</v>
+        <v>0.0003833230418848587</v>
       </c>
     </row>
     <row r="402">
@@ -4448,7 +4448,7 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>2.566179359898636e-05</v>
+        <v>5.132358719797272e-05</v>
       </c>
     </row>
     <row r="403">
@@ -4459,7 +4459,7 @@
         </is>
       </c>
       <c r="B403" t="n">
-        <v>0.000141139864794425</v>
+        <v>0.00028227972958885</v>
       </c>
     </row>
     <row r="404">
@@ -4469,7 +4469,7 @@
         </is>
       </c>
       <c r="B404" t="n">
-        <v>0.0001234973816951219</v>
+        <v>0.0002469947633902437</v>
       </c>
     </row>
     <row r="405">
@@ -4480,7 +4480,7 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>2.806758674889133e-05</v>
+        <v>5.613517349778266e-05</v>
       </c>
     </row>
     <row r="406">
@@ -4491,7 +4491,7 @@
         </is>
       </c>
       <c r="B406" t="n">
-        <v>0.0001018452433459771</v>
+        <v>0.0002036904866919542</v>
       </c>
     </row>
     <row r="407">
@@ -4502,7 +4502,7 @@
         </is>
       </c>
       <c r="B407" t="n">
-        <v>3.207724199873295e-06</v>
+        <v>6.41544839974659e-06</v>
       </c>
     </row>
     <row r="408">
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="B408" t="n">
-        <v>4.651200089816277e-05</v>
+        <v>9.302400179632555e-05</v>
       </c>
     </row>
     <row r="409">
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="B409" t="n">
-        <v>0.0002060962798418592</v>
+        <v>0.0004121925596837184</v>
       </c>
     </row>
     <row r="410">
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="B410" t="n">
-        <v>7.939117394686405e-05</v>
+        <v>0.0001587823478937281</v>
       </c>
     </row>
     <row r="411">
@@ -4542,7 +4542,7 @@
         </is>
       </c>
       <c r="B411" t="n">
-        <v>0.0001050529675458504</v>
+        <v>0.0002101059350917008</v>
       </c>
     </row>
     <row r="412">
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="B412" t="n">
-        <v>6.174869084756093e-05</v>
+        <v>0.0001234973816951219</v>
       </c>
     </row>
     <row r="413">
@@ -4562,7 +4562,7 @@
         </is>
       </c>
       <c r="B413" t="n">
-        <v>0.0001026471743959454</v>
+        <v>0.0002052943487918909</v>
       </c>
     </row>
     <row r="414">
@@ -4572,7 +4572,7 @@
         </is>
       </c>
       <c r="B414" t="n">
-        <v>0.0002814777985388816</v>
+        <v>0.0005629555970777633</v>
       </c>
     </row>
     <row r="415">
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="B415" t="n">
-        <v>6.174869084756093e-05</v>
+        <v>0.0001234973816951219</v>
       </c>
     </row>
     <row r="416">
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="B416" t="n">
-        <v>9.623172599619885e-06</v>
+        <v>1.924634519923977e-05</v>
       </c>
     </row>
     <row r="417">
@@ -4602,7 +4602,7 @@
         </is>
       </c>
       <c r="B417" t="n">
-        <v>0.0001403379337444567</v>
+        <v>0.0002806758674889133</v>
       </c>
     </row>
     <row r="418">
@@ -4612,7 +4612,7 @@
         </is>
       </c>
       <c r="B418" t="n">
-        <v>0.0008171677399177219</v>
+        <v>0.001634335479835444</v>
       </c>
     </row>
     <row r="419">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B419" t="n">
-        <v>3.528496619860625e-05</v>
+        <v>7.056993239721249e-05</v>
       </c>
     </row>
     <row r="420">
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="B420" t="n">
-        <v>0.003028893575730359</v>
+        <v>0.006057787151460717</v>
       </c>
     </row>
     <row r="421">
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="B421" t="n">
-        <v>0.0001595842789436964</v>
+        <v>0.0003191685578873928</v>
       </c>
     </row>
     <row r="422">
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="B422" t="n">
-        <v>5.132358719797272e-05</v>
+        <v>0.0001026471743959454</v>
       </c>
     </row>
     <row r="423">
@@ -4663,7 +4663,7 @@
         </is>
       </c>
       <c r="B423" t="n">
-        <v>0.0003712940761353339</v>
+        <v>0.0007425881522706677</v>
       </c>
     </row>
     <row r="424">
@@ -4673,7 +4673,7 @@
         </is>
       </c>
       <c r="B424" t="n">
-        <v>0.0006295158742251341</v>
+        <v>0.001259031748450268</v>
       </c>
     </row>
     <row r="425">
@@ -4683,7 +4683,7 @@
         </is>
       </c>
       <c r="B425" t="n">
-        <v>0.0001940673140923343</v>
+        <v>0.0003881346281846687</v>
       </c>
     </row>
     <row r="426">
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="B426" t="n">
-        <v>0.0001074587606957554</v>
+        <v>0.0002149175213915108</v>
       </c>
     </row>
     <row r="427">
@@ -4703,7 +4703,7 @@
         </is>
       </c>
       <c r="B427" t="n">
-        <v>3.04733798987963e-05</v>
+        <v>6.09467597975926e-05</v>
       </c>
     </row>
     <row r="428">
@@ -4713,7 +4713,7 @@
         </is>
       </c>
       <c r="B428" t="n">
-        <v>5.773903559771931e-05</v>
+        <v>0.0001154780711954386</v>
       </c>
     </row>
     <row r="429">
@@ -4723,7 +4723,7 @@
         </is>
       </c>
       <c r="B429" t="n">
-        <v>5.934289769765596e-05</v>
+        <v>0.0001186857953953119</v>
       </c>
     </row>
     <row r="430">
@@ -4733,7 +4733,7 @@
         </is>
       </c>
       <c r="B430" t="n">
-        <v>0.000619090770575546</v>
+        <v>0.001238181541151092</v>
       </c>
     </row>
     <row r="431">
@@ -4743,7 +4743,7 @@
         </is>
       </c>
       <c r="B431" t="n">
-        <v>0.00109543781425673</v>
+        <v>0.002190875628513461</v>
       </c>
     </row>
     <row r="432">
@@ -4753,7 +4753,7 @@
         </is>
       </c>
       <c r="B432" t="n">
-        <v>0.00014354565794433</v>
+        <v>0.0002870913158886599</v>
       </c>
     </row>
     <row r="433">
@@ -4763,7 +4763,7 @@
         </is>
       </c>
       <c r="B433" t="n">
-        <v>0.00013873407164452</v>
+        <v>0.00027746814328904</v>
       </c>
     </row>
     <row r="434">
@@ -4773,7 +4773,7 @@
         </is>
       </c>
       <c r="B434" t="n">
-        <v>0.0002149175213915108</v>
+        <v>0.0004298350427830215</v>
       </c>
     </row>
     <row r="435">
@@ -4783,7 +4783,7 @@
         </is>
       </c>
       <c r="B435" t="n">
-        <v>0.0003785114555850488</v>
+        <v>0.0007570229111700976</v>
       </c>
     </row>
     <row r="436">
@@ -4794,7 +4794,7 @@
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0.0001627920031435697</v>
+        <v>0.0003255840062871394</v>
       </c>
     </row>
     <row r="437">
@@ -4804,7 +4804,7 @@
         </is>
       </c>
       <c r="B437" t="n">
-        <v>0.0001523668994939815</v>
+        <v>0.000304733798987963</v>
       </c>
     </row>
     <row r="438">
@@ -4814,7 +4814,7 @@
         </is>
       </c>
       <c r="B438" t="n">
-        <v>0.0002542121428399586</v>
+        <v>0.0005084242856799173</v>
       </c>
     </row>
     <row r="439">
@@ -4824,7 +4824,7 @@
         </is>
       </c>
       <c r="B439" t="n">
-        <v>9.863751914610382e-05</v>
+        <v>0.0001972750382922076</v>
       </c>
     </row>
     <row r="440">
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="B440" t="n">
-        <v>0.0001483572442441399</v>
+        <v>0.0002967144884882798</v>
       </c>
     </row>
     <row r="441">
@@ -4844,7 +4844,7 @@
         </is>
       </c>
       <c r="B441" t="n">
-        <v>0.0003873326971347003</v>
+        <v>0.0007746653942694007</v>
       </c>
     </row>
     <row r="442">
@@ -4854,7 +4854,7 @@
         </is>
       </c>
       <c r="B442" t="n">
-        <v>0.0003905404213345737</v>
+        <v>0.0007810808426691473</v>
       </c>
     </row>
     <row r="443">
@@ -4864,7 +4864,7 @@
         </is>
       </c>
       <c r="B443" t="n">
-        <v>0.0001130722780455337</v>
+        <v>0.0002261445560910673</v>
       </c>
     </row>
     <row r="444">
@@ -4874,7 +4874,7 @@
         </is>
       </c>
       <c r="B444" t="n">
-        <v>0.00014354565794433</v>
+        <v>0.0002870913158886599</v>
       </c>
     </row>
     <row r="445">
@@ -4884,7 +4884,7 @@
         </is>
       </c>
       <c r="B445" t="n">
-        <v>0.0001563765547438231</v>
+        <v>0.0003127531094876462</v>
       </c>
     </row>
     <row r="446">
@@ -4894,7 +4894,7 @@
         </is>
       </c>
       <c r="B446" t="n">
-        <v>0.0007385784970208261</v>
+        <v>0.001477156994041652</v>
       </c>
     </row>
     <row r="447">
@@ -4904,7 +4904,7 @@
         </is>
       </c>
       <c r="B447" t="n">
-        <v>0.0003143569715875829</v>
+        <v>0.0006287139431751658</v>
       </c>
     </row>
     <row r="448">
@@ -4914,7 +4914,7 @@
         </is>
       </c>
       <c r="B448" t="n">
-        <v>0.0007490036006704144</v>
+        <v>0.001498007201340829</v>
       </c>
     </row>
     <row r="449">
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="B449" t="n">
-        <v>0.0001451495200442666</v>
+        <v>0.0002902990400885332</v>
       </c>
     </row>
     <row r="450">
@@ -4934,7 +4934,7 @@
         </is>
       </c>
       <c r="B450" t="n">
-        <v>0.0001611881410436331</v>
+        <v>0.0003223762820872661</v>
       </c>
     </row>
     <row r="451">
@@ -4944,7 +4944,7 @@
         </is>
       </c>
       <c r="B451" t="n">
-        <v>4.73139319481311e-05</v>
+        <v>9.46278638962622e-05</v>
       </c>
     </row>
     <row r="452">
@@ -4954,7 +4954,7 @@
         </is>
       </c>
       <c r="B452" t="n">
-        <v>1.924634519923977e-05</v>
+        <v>3.849269039847954e-05</v>
       </c>
     </row>
     <row r="453">
@@ -4964,7 +4964,7 @@
         </is>
       </c>
       <c r="B453" t="n">
-        <v>6.575834609740254e-05</v>
+        <v>0.0001315166921948051</v>
       </c>
     </row>
     <row r="454">
@@ -4974,7 +4974,7 @@
         </is>
       </c>
       <c r="B454" t="n">
-        <v>4.009655249841618e-06</v>
+        <v>8.019310499683237e-06</v>
       </c>
     </row>
     <row r="455">
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="B455" t="n">
-        <v>9.623172599619885e-06</v>
+        <v>1.924634519923977e-05</v>
       </c>
     </row>
     <row r="456">
@@ -4994,7 +4994,7 @@
         </is>
       </c>
       <c r="B456" t="n">
-        <v>8.340082919670566e-05</v>
+        <v>0.0001668016583934113</v>
       </c>
     </row>
     <row r="457">
@@ -5004,7 +5004,7 @@
         </is>
       </c>
       <c r="B457" t="n">
-        <v>0.0001178838643453436</v>
+        <v>0.0002357677286906872</v>
       </c>
     </row>
     <row r="458">
@@ -5014,7 +5014,7 @@
         </is>
       </c>
       <c r="B458" t="n">
-        <v>0.0001988789003921443</v>
+        <v>0.0003977578007842886</v>
       </c>
     </row>
     <row r="459">
@@ -5024,7 +5024,7 @@
         </is>
       </c>
       <c r="B459" t="n">
-        <v>0.0001331205542947418</v>
+        <v>0.0002662411085894835</v>
       </c>
     </row>
     <row r="460">
@@ -5034,7 +5034,7 @@
         </is>
       </c>
       <c r="B460" t="n">
-        <v>0.0002510044186400853</v>
+        <v>0.0005020088372801706</v>
       </c>
     </row>
     <row r="461">
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="B461" t="n">
-        <v>5.773903559771931e-05</v>
+        <v>0.0001154780711954386</v>
       </c>
     </row>
     <row r="462">
@@ -5054,7 +5054,7 @@
         </is>
       </c>
       <c r="B462" t="n">
-        <v>0.0001700093825932846</v>
+        <v>0.0003400187651865693</v>
       </c>
     </row>
     <row r="463">
@@ -5064,7 +5064,7 @@
         </is>
       </c>
       <c r="B463" t="n">
-        <v>9.302400179632555e-05</v>
+        <v>0.0001860480035926511</v>
       </c>
     </row>
     <row r="464">
@@ -5074,7 +5074,7 @@
         </is>
       </c>
       <c r="B464" t="n">
-        <v>0.0002405793149904971</v>
+        <v>0.0004811586299809942</v>
       </c>
     </row>
     <row r="465">
@@ -5084,7 +5084,7 @@
         </is>
       </c>
       <c r="B465" t="n">
-        <v>7.056993239721249e-05</v>
+        <v>0.000141139864794425</v>
       </c>
     </row>
     <row r="466">
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="B466" t="n">
-        <v>2.726565569892301e-05</v>
+        <v>5.453131139784602e-05</v>
       </c>
     </row>
     <row r="467">
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="B467" t="n">
-        <v>0.0003696902140353973</v>
+        <v>0.0007393804280707945</v>
       </c>
     </row>
     <row r="468">
@@ -5114,7 +5114,7 @@
         </is>
       </c>
       <c r="B468" t="n">
-        <v>8.019310499683238e-05</v>
+        <v>0.0001603862099936648</v>
       </c>
     </row>
     <row r="469">
@@ -5124,7 +5124,7 @@
         </is>
       </c>
       <c r="B469" t="n">
-        <v>4.410620774825781e-05</v>
+        <v>8.821241549651561e-05</v>
       </c>
     </row>
     <row r="470">
@@ -5134,7 +5134,7 @@
         </is>
       </c>
       <c r="B470" t="n">
-        <v>0.0001772267620429995</v>
+        <v>0.0003544535240859991</v>
       </c>
     </row>
     <row r="471">
@@ -5144,7 +5144,7 @@
         </is>
       </c>
       <c r="B471" t="n">
-        <v>0.0004234195943832749</v>
+        <v>0.0008468391887665499</v>
       </c>
     </row>
     <row r="472">
@@ -5154,7 +5154,7 @@
         </is>
       </c>
       <c r="B472" t="n">
-        <v>2.726565569892301e-05</v>
+        <v>5.453131139784602e-05</v>
       </c>
     </row>
     <row r="473">
@@ -5164,7 +5164,7 @@
         </is>
       </c>
       <c r="B473" t="n">
-        <v>9.382593284629388e-05</v>
+        <v>0.0001876518656925878</v>
       </c>
     </row>
     <row r="474">
@@ -5174,7 +5174,7 @@
         </is>
       </c>
       <c r="B474" t="n">
-        <v>0.0001042510364958821</v>
+        <v>0.0002085020729917642</v>
       </c>
     </row>
     <row r="475">
@@ -5184,7 +5184,7 @@
         </is>
       </c>
       <c r="B475" t="n">
-        <v>5.052165614800439e-05</v>
+        <v>0.0001010433122960088</v>
       </c>
     </row>
     <row r="476">
@@ -5194,7 +5194,7 @@
         </is>
       </c>
       <c r="B476" t="n">
-        <v>0.0002919029021884698</v>
+        <v>0.0005838058043769397</v>
       </c>
     </row>
     <row r="477">
@@ -5204,7 +5204,7 @@
         </is>
       </c>
       <c r="B477" t="n">
-        <v>0.0002510044186400853</v>
+        <v>0.0005020088372801706</v>
       </c>
     </row>
     <row r="478">
@@ -5214,7 +5214,7 @@
         </is>
       </c>
       <c r="B478" t="n">
-        <v>0.0001323186232447734</v>
+        <v>0.0002646372464895468</v>
       </c>
     </row>
     <row r="479">
@@ -5224,7 +5224,7 @@
         </is>
       </c>
       <c r="B479" t="n">
-        <v>4.410620774825781e-05</v>
+        <v>8.821241549651561e-05</v>
       </c>
     </row>
     <row r="480">
@@ -5234,7 +5234,7 @@
         </is>
       </c>
       <c r="B480" t="n">
-        <v>6.255062189752924e-05</v>
+        <v>0.0001251012437950585</v>
       </c>
     </row>
     <row r="481">
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="B481" t="n">
-        <v>5.533324244781433e-05</v>
+        <v>0.0001106664848956287</v>
       </c>
     </row>
     <row r="482">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B482" t="n">
-        <v>2.004827624920809e-05</v>
+        <v>4.009655249841619e-05</v>
       </c>
     </row>
     <row r="483">
@@ -5264,7 +5264,7 @@
         </is>
       </c>
       <c r="B483" t="n">
-        <v>6.41544839974659e-06</v>
+        <v>1.283089679949318e-05</v>
       </c>
     </row>
     <row r="484">
@@ -5274,7 +5274,7 @@
         </is>
       </c>
       <c r="B484" t="n">
-        <v>6.495641504743423e-05</v>
+        <v>0.0001299128300948685</v>
       </c>
     </row>
     <row r="485">
@@ -5284,7 +5284,7 @@
         </is>
       </c>
       <c r="B485" t="n">
-        <v>0.0002967144884882798</v>
+        <v>0.0005934289769765596</v>
       </c>
     </row>
     <row r="486">
@@ -5294,7 +5294,7 @@
         </is>
       </c>
       <c r="B486" t="n">
-        <v>6.415448399746589e-05</v>
+        <v>0.0001283089679949318</v>
       </c>
     </row>
     <row r="487">
@@ -5304,7 +5304,7 @@
         </is>
       </c>
       <c r="B487" t="n">
-        <v>0.000336811040986696</v>
+        <v>0.000673622081973392</v>
       </c>
     </row>
     <row r="488">
@@ -5314,7 +5314,7 @@
         </is>
       </c>
       <c r="B488" t="n">
-        <v>0.0001202896574952486</v>
+        <v>0.0002405793149904971</v>
       </c>
     </row>
     <row r="489">
@@ -5325,7 +5325,7 @@
         </is>
       </c>
       <c r="B489" t="n">
-        <v>7.217379449714913e-05</v>
+        <v>0.0001443475889942983</v>
       </c>
     </row>
     <row r="490">
@@ -5335,7 +5335,7 @@
         </is>
       </c>
       <c r="B490" t="n">
-        <v>0.0002261445560910673</v>
+        <v>0.0004522891121821346</v>
       </c>
     </row>
     <row r="491">
@@ -5345,7 +5345,7 @@
         </is>
       </c>
       <c r="B491" t="n">
-        <v>0.0002991202816381848</v>
+        <v>0.0005982405632763695</v>
       </c>
     </row>
     <row r="492">
@@ -5356,7 +5356,7 @@
         </is>
       </c>
       <c r="B492" t="n">
-        <v>4.891779404806775e-05</v>
+        <v>9.78355880961355e-05</v>
       </c>
     </row>
     <row r="493">
@@ -5366,7 +5366,7 @@
         </is>
       </c>
       <c r="B493" t="n">
-        <v>9.78355880961355e-05</v>
+        <v>0.000195671176192271</v>
       </c>
     </row>
     <row r="494">
@@ -5376,7 +5376,7 @@
         </is>
       </c>
       <c r="B494" t="n">
-        <v>0.0003231782131372345</v>
+        <v>0.0006463564262744689</v>
       </c>
     </row>
     <row r="495">
@@ -5386,7 +5386,7 @@
         </is>
       </c>
       <c r="B495" t="n">
-        <v>8.019310499683237e-07</v>
+        <v>1.603862099936647e-06</v>
       </c>
     </row>
     <row r="496">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="B496" t="n">
-        <v>0.0001251012437950585</v>
+        <v>0.000250202487590117</v>
       </c>
     </row>
     <row r="497">
@@ -5406,7 +5406,7 @@
         </is>
       </c>
       <c r="B497" t="n">
-        <v>4.811586299809942e-06</v>
+        <v>9.623172599619885e-06</v>
       </c>
     </row>
     <row r="498">
@@ -5416,7 +5416,7 @@
         </is>
       </c>
       <c r="B498" t="n">
-        <v>3.769075934851121e-05</v>
+        <v>7.538151869702243e-05</v>
       </c>
     </row>
     <row r="499">
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="B499" t="n">
-        <v>2.085020729917642e-05</v>
+        <v>4.170041459835283e-05</v>
       </c>
     </row>
     <row r="500">
@@ -5436,7 +5436,7 @@
         </is>
       </c>
       <c r="B500" t="n">
-        <v>1.202896574952486e-05</v>
+        <v>2.405793149904971e-05</v>
       </c>
     </row>
     <row r="501">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="B501" t="n">
-        <v>6.174869084756093e-05</v>
+        <v>0.0001234973816951219</v>
       </c>
     </row>
     <row r="502">
@@ -5456,7 +5456,7 @@
         </is>
       </c>
       <c r="B502" t="n">
-        <v>8.019310499683237e-06</v>
+        <v>1.603862099936647e-05</v>
       </c>
     </row>
     <row r="503">
@@ -5466,7 +5466,7 @@
         </is>
       </c>
       <c r="B503" t="n">
-        <v>5.613517349778266e-05</v>
+        <v>0.0001122703469955653</v>
       </c>
     </row>
     <row r="504">
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="B504" t="n">
-        <v>1.042510364958821e-05</v>
+        <v>2.085020729917642e-05</v>
       </c>
     </row>
     <row r="505">
@@ -5486,7 +5486,7 @@
         </is>
       </c>
       <c r="B505" t="n">
-        <v>3.127531094876462e-05</v>
+        <v>6.255062189752924e-05</v>
       </c>
     </row>
     <row r="506">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="B506" t="n">
-        <v>1.202896574952486e-05</v>
+        <v>2.405793149904971e-05</v>
       </c>
     </row>
     <row r="507">
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="B507" t="n">
-        <v>1.68405520493348e-05</v>
+        <v>3.36811040986696e-05</v>
       </c>
     </row>
     <row r="508">
@@ -5516,7 +5516,7 @@
         </is>
       </c>
       <c r="B508" t="n">
-        <v>3.769075934851121e-05</v>
+        <v>7.538151869702243e-05</v>
       </c>
     </row>
     <row r="509">
@@ -5526,7 +5526,7 @@
         </is>
       </c>
       <c r="B509" t="n">
-        <v>3.127531094876462e-05</v>
+        <v>6.255062189752924e-05</v>
       </c>
     </row>
     <row r="510">
@@ -5536,7 +5536,7 @@
         </is>
       </c>
       <c r="B510" t="n">
-        <v>7.377765659708578e-05</v>
+        <v>0.0001475553131941716</v>
       </c>
     </row>
     <row r="511">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="B511" t="n">
-        <v>1.283089679949318e-05</v>
+        <v>2.566179359898636e-05</v>
       </c>
     </row>
     <row r="512">
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="B512" t="n">
-        <v>0.0003063376610878997</v>
+        <v>0.0006126753221757993</v>
       </c>
     </row>
     <row r="513">
@@ -5566,7 +5566,7 @@
         </is>
       </c>
       <c r="B513" t="n">
-        <v>2.165213834914474e-05</v>
+        <v>4.330427669828948e-05</v>
       </c>
     </row>
     <row r="514">
@@ -5576,7 +5576,7 @@
         </is>
       </c>
       <c r="B514" t="n">
-        <v>0.0002317580734408456</v>
+        <v>0.0004635161468816911</v>
       </c>
     </row>
     <row r="515">
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="B515" t="n">
-        <v>0.0002606275912397052</v>
+        <v>0.0005212551824794105</v>
       </c>
     </row>
     <row r="516">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="B516" t="n">
-        <v>2.485986254901804e-05</v>
+        <v>4.971972509803607e-05</v>
       </c>
     </row>
     <row r="517">
@@ -5606,7 +5606,7 @@
         </is>
       </c>
       <c r="B517" t="n">
-        <v>0.0001098645538456604</v>
+        <v>0.0002197291076913207</v>
       </c>
     </row>
     <row r="518">
@@ -5616,7 +5616,7 @@
         </is>
       </c>
       <c r="B518" t="n">
-        <v>0.0003456322825363475</v>
+        <v>0.000691264565072695</v>
       </c>
     </row>
     <row r="519">
@@ -5626,7 +5626,7 @@
         </is>
       </c>
       <c r="B519" t="n">
-        <v>0.000661593116223867</v>
+        <v>0.001323186232447734</v>
       </c>
     </row>
     <row r="520">
@@ -5636,7 +5636,7 @@
         </is>
       </c>
       <c r="B520" t="n">
-        <v>0.0002245406939911306</v>
+        <v>0.0004490813879822613</v>
       </c>
     </row>
     <row r="521">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="B521" t="n">
-        <v>0.0001291108990449001</v>
+        <v>0.0002582217980898002</v>
       </c>
     </row>
     <row r="522">
@@ -5656,7 +5656,7 @@
         </is>
       </c>
       <c r="B522" t="n">
-        <v>0.0003512457998861258</v>
+        <v>0.0007024915997722516</v>
       </c>
     </row>
     <row r="523">
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="B523" t="n">
-        <v>4.651200089816277e-05</v>
+        <v>9.302400179632555e-05</v>
       </c>
     </row>
     <row r="524">
@@ -5676,7 +5676,7 @@
         </is>
       </c>
       <c r="B524" t="n">
-        <v>0.0001010433122960088</v>
+        <v>0.0002020866245920176</v>
       </c>
     </row>
     <row r="525">
@@ -5686,7 +5686,7 @@
         </is>
       </c>
       <c r="B525" t="n">
-        <v>0.00027265655698923</v>
+        <v>0.0005453131139784601</v>
       </c>
     </row>
     <row r="526">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="B526" t="n">
-        <v>5.613517349778266e-05</v>
+        <v>0.0001122703469955653</v>
       </c>
     </row>
     <row r="527">
@@ -5706,7 +5706,7 @@
         </is>
       </c>
       <c r="B527" t="n">
-        <v>7.77873118469274e-05</v>
+        <v>0.0001555746236938548</v>
       </c>
     </row>
     <row r="528">
@@ -5716,7 +5716,7 @@
         </is>
       </c>
       <c r="B528" t="n">
-        <v>2.085020729917642e-05</v>
+        <v>4.170041459835283e-05</v>
       </c>
     </row>
     <row r="529">
@@ -5727,7 +5727,7 @@
         </is>
       </c>
       <c r="B529" t="n">
-        <v>5.292744929790937e-05</v>
+        <v>0.0001058548985958187</v>
       </c>
     </row>
     <row r="530">
@@ -5737,7 +5737,7 @@
         </is>
       </c>
       <c r="B530" t="n">
-        <v>1.603862099936647e-06</v>
+        <v>3.207724199873295e-06</v>
       </c>
     </row>
     <row r="531">
@@ -5747,7 +5747,7 @@
         </is>
       </c>
       <c r="B531" t="n">
-        <v>0.0002670430396394518</v>
+        <v>0.0005340860792789036</v>
       </c>
     </row>
     <row r="532">
@@ -5757,7 +5757,7 @@
         </is>
       </c>
       <c r="B532" t="n">
-        <v>0.0001034491054459138</v>
+        <v>0.0002068982108918275</v>
       </c>
     </row>
     <row r="533">
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="B533" t="n">
-        <v>0.0001194877264452802</v>
+        <v>0.0002389754528905605</v>
       </c>
     </row>
     <row r="534">
@@ -5777,7 +5777,7 @@
         </is>
       </c>
       <c r="B534" t="n">
-        <v>3.528496619860625e-05</v>
+        <v>7.056993239721249e-05</v>
       </c>
     </row>
     <row r="535">
@@ -5787,7 +5787,7 @@
         </is>
       </c>
       <c r="B535" t="n">
-        <v>0.0001066568296457871</v>
+        <v>0.0002133136592915741</v>
       </c>
     </row>
     <row r="536">
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="B536" t="n">
-        <v>1.764248309930312e-05</v>
+        <v>3.528496619860625e-05</v>
       </c>
     </row>
     <row r="537">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="B537" t="n">
-        <v>0.0001339224853447101</v>
+        <v>0.0002678449706894201</v>
       </c>
     </row>
     <row r="538">
@@ -5817,7 +5817,7 @@
         </is>
       </c>
       <c r="B538" t="n">
-        <v>5.613517349778266e-06</v>
+        <v>1.122703469955653e-05</v>
       </c>
     </row>
     <row r="539">
@@ -5827,7 +5827,7 @@
         </is>
       </c>
       <c r="B539" t="n">
-        <v>4.009655249841618e-06</v>
+        <v>8.019310499683237e-06</v>
       </c>
     </row>
     <row r="540">
@@ -5837,7 +5837,7 @@
         </is>
       </c>
       <c r="B540" t="n">
-        <v>3.04733798987963e-05</v>
+        <v>6.09467597975926e-05</v>
       </c>
     </row>
     <row r="541">
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="B541" t="n">
-        <v>0.000245390901290307</v>
+        <v>0.0004907818025806141</v>
       </c>
     </row>
     <row r="542">
@@ -5857,7 +5857,7 @@
         </is>
       </c>
       <c r="B542" t="n">
-        <v>7.939117394686405e-05</v>
+        <v>0.0001587823478937281</v>
       </c>
     </row>
     <row r="543">
@@ -5867,7 +5867,7 @@
         </is>
       </c>
       <c r="B543" t="n">
-        <v>0.0001283089679949318</v>
+        <v>0.0002566179359898636</v>
       </c>
     </row>
     <row r="544">
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="B544" t="n">
-        <v>2.085020729917642e-05</v>
+        <v>4.170041459835283e-05</v>
       </c>
     </row>
     <row r="545">
@@ -5887,7 +5887,7 @@
         </is>
       </c>
       <c r="B545" t="n">
-        <v>1.283089679949318e-05</v>
+        <v>2.566179359898636e-05</v>
       </c>
     </row>
     <row r="546">
@@ -5897,7 +5897,7 @@
         </is>
       </c>
       <c r="B546" t="n">
-        <v>0.0002421831770904338</v>
+        <v>0.0004843663541808675</v>
       </c>
     </row>
     <row r="547">
@@ -5907,7 +5907,7 @@
         </is>
       </c>
       <c r="B547" t="n">
-        <v>0.0001050529675458504</v>
+        <v>0.0002101059350917008</v>
       </c>
     </row>
     <row r="548">
@@ -5917,7 +5917,7 @@
         </is>
       </c>
       <c r="B548" t="n">
-        <v>2.165213834914474e-05</v>
+        <v>4.330427669828948e-05</v>
       </c>
     </row>
     <row r="549">
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="B549" t="n">
-        <v>1.042510364958821e-05</v>
+        <v>2.085020729917642e-05</v>
       </c>
     </row>
     <row r="550">
@@ -5937,7 +5937,7 @@
         </is>
       </c>
       <c r="B550" t="n">
-        <v>1.603862099936647e-06</v>
+        <v>3.207724199873295e-06</v>
       </c>
     </row>
     <row r="551">
@@ -5947,7 +5947,7 @@
         </is>
       </c>
       <c r="B551" t="n">
-        <v>0.0001202896574952486</v>
+        <v>0.0002405793149904971</v>
       </c>
     </row>
     <row r="552">
@@ -5957,7 +5957,7 @@
         </is>
       </c>
       <c r="B552" t="n">
-        <v>5.854096664768763e-05</v>
+        <v>0.0001170819332953753</v>
       </c>
     </row>
     <row r="553">
@@ -5967,7 +5967,7 @@
         </is>
       </c>
       <c r="B553" t="n">
-        <v>6.976800134724416e-05</v>
+        <v>0.0001395360026944883</v>
       </c>
     </row>
     <row r="554">
@@ -5977,7 +5977,7 @@
         </is>
       </c>
       <c r="B554" t="n">
-        <v>2.325600044908139e-05</v>
+        <v>4.651200089816277e-05</v>
       </c>
     </row>
     <row r="555">
@@ -5987,7 +5987,7 @@
         </is>
       </c>
       <c r="B555" t="n">
-        <v>0.0001242993127450902</v>
+        <v>0.0002485986254901804</v>
       </c>
     </row>
     <row r="556">
@@ -5997,7 +5997,7 @@
         </is>
       </c>
       <c r="B556" t="n">
-        <v>1.443475889942983e-05</v>
+        <v>2.886951779885965e-05</v>
       </c>
     </row>
     <row r="557">
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="B557" t="n">
-        <v>3.127531094876462e-05</v>
+        <v>6.255062189752924e-05</v>
       </c>
     </row>
     <row r="558">
@@ -6017,7 +6017,7 @@
         </is>
       </c>
       <c r="B558" t="n">
-        <v>4.651200089816277e-05</v>
+        <v>9.302400179632555e-05</v>
       </c>
     </row>
     <row r="559">
@@ -6027,7 +6027,7 @@
         </is>
       </c>
       <c r="B559" t="n">
-        <v>0.0001555746236938548</v>
+        <v>0.0003111492473877096</v>
       </c>
     </row>
     <row r="560">
@@ -6037,7 +6037,7 @@
         </is>
       </c>
       <c r="B560" t="n">
-        <v>7.297572554711746e-05</v>
+        <v>0.0001459514510942349</v>
       </c>
     </row>
     <row r="561">
@@ -6047,7 +6047,7 @@
         </is>
       </c>
       <c r="B561" t="n">
-        <v>8.019310499683237e-06</v>
+        <v>1.603862099936647e-05</v>
       </c>
     </row>
     <row r="562">
@@ -6057,7 +6057,7 @@
         </is>
       </c>
       <c r="B562" t="n">
-        <v>8.821241549651562e-06</v>
+        <v>1.764248309930312e-05</v>
       </c>
     </row>
     <row r="563">
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="B563" t="n">
-        <v>9.863751914610382e-05</v>
+        <v>0.0001972750382922076</v>
       </c>
     </row>
     <row r="564">
@@ -6077,7 +6077,7 @@
         </is>
       </c>
       <c r="B564" t="n">
-        <v>9.943945019607215e-05</v>
+        <v>0.0001988789003921443</v>
       </c>
     </row>
     <row r="565">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="B565" t="n">
-        <v>0.0001122703469955653</v>
+        <v>0.0002245406939911306</v>
       </c>
     </row>
     <row r="566">
@@ -6097,7 +6097,7 @@
         </is>
       </c>
       <c r="B566" t="n">
-        <v>4.009655249841618e-06</v>
+        <v>8.019310499683237e-06</v>
       </c>
     </row>
     <row r="567">
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="B567" t="n">
-        <v>1.36328278494615e-05</v>
+        <v>2.726565569892301e-05</v>
       </c>
     </row>
     <row r="568">
@@ -6117,7 +6117,7 @@
         </is>
       </c>
       <c r="B568" t="n">
-        <v>4.410620774825781e-05</v>
+        <v>8.821241549651561e-05</v>
       </c>
     </row>
     <row r="569">
@@ -6127,7 +6127,7 @@
         </is>
       </c>
       <c r="B569" t="n">
-        <v>3.127531094876462e-05</v>
+        <v>6.255062189752924e-05</v>
       </c>
     </row>
     <row r="570">
@@ -6137,7 +6137,7 @@
         </is>
       </c>
       <c r="B570" t="n">
-        <v>1.603862099936647e-06</v>
+        <v>3.207724199873295e-06</v>
       </c>
     </row>
     <row r="571">
@@ -6147,7 +6147,7 @@
         </is>
       </c>
       <c r="B571" t="n">
-        <v>0.0001042510364958821</v>
+        <v>0.0002085020729917642</v>
       </c>
     </row>
     <row r="572">
@@ -6157,7 +6157,7 @@
         </is>
       </c>
       <c r="B572" t="n">
-        <v>8.741048444654728e-05</v>
+        <v>0.0001748209688930946</v>
       </c>
     </row>
     <row r="573">
@@ -6168,7 +6168,7 @@
         </is>
       </c>
       <c r="B573" t="n">
-        <v>8.660855339657896e-05</v>
+        <v>0.0001732171067931579</v>
       </c>
     </row>
     <row r="574">
@@ -6179,7 +6179,7 @@
         </is>
       </c>
       <c r="B574" t="n">
-        <v>1.042510364958821e-05</v>
+        <v>2.085020729917642e-05</v>
       </c>
     </row>
     <row r="575">
@@ -6189,7 +6189,7 @@
         </is>
       </c>
       <c r="B575" t="n">
-        <v>2.165213834914474e-05</v>
+        <v>4.330427669828948e-05</v>
       </c>
     </row>
     <row r="576">
@@ -6199,7 +6199,7 @@
         </is>
       </c>
       <c r="B576" t="n">
-        <v>2.886951779885965e-05</v>
+        <v>5.773903559771931e-05</v>
       </c>
     </row>
     <row r="577">
@@ -6209,7 +6209,7 @@
         </is>
       </c>
       <c r="B577" t="n">
-        <v>0.0001491591752941082</v>
+        <v>0.0002983183505882164</v>
       </c>
     </row>
     <row r="578">
@@ -6219,7 +6219,7 @@
         </is>
       </c>
       <c r="B578" t="n">
-        <v>0.0001259031748450268</v>
+        <v>0.0002518063496900536</v>
       </c>
     </row>
     <row r="579">
@@ -6229,7 +6229,7 @@
         </is>
       </c>
       <c r="B579" t="n">
-        <v>2.004827624920809e-05</v>
+        <v>4.009655249841619e-05</v>
       </c>
     </row>
     <row r="580">
@@ -6240,7 +6240,7 @@
         </is>
       </c>
       <c r="B580" t="n">
-        <v>8.821241549651561e-05</v>
+        <v>0.0001764248309930312</v>
       </c>
     </row>
     <row r="581">
@@ -6250,7 +6250,7 @@
         </is>
       </c>
       <c r="B581" t="n">
-        <v>0.0001034491054459138</v>
+        <v>0.0002068982108918275</v>
       </c>
     </row>
     <row r="582">
@@ -6260,7 +6260,7 @@
         </is>
       </c>
       <c r="B582" t="n">
-        <v>5.854096664768763e-05</v>
+        <v>0.0001170819332953753</v>
       </c>
     </row>
     <row r="583">
@@ -6270,7 +6270,7 @@
         </is>
       </c>
       <c r="B583" t="n">
-        <v>4.009655249841619e-05</v>
+        <v>8.019310499683238e-05</v>
       </c>
     </row>
     <row r="584">
@@ -6280,7 +6280,7 @@
         </is>
       </c>
       <c r="B584" t="n">
-        <v>1.443475889942983e-05</v>
+        <v>2.886951779885965e-05</v>
       </c>
     </row>
     <row r="585">
@@ -6291,7 +6291,7 @@
         </is>
       </c>
       <c r="B585" t="n">
-        <v>3.448303514863792e-05</v>
+        <v>6.896607029727584e-05</v>
       </c>
     </row>
     <row r="586">
@@ -6301,7 +6301,7 @@
         </is>
       </c>
       <c r="B586" t="n">
-        <v>0.0001267051058949952</v>
+        <v>0.0002534102117899903</v>
       </c>
     </row>
     <row r="587">
@@ -6311,7 +6311,7 @@
         </is>
       </c>
       <c r="B587" t="n">
-        <v>6.41544839974659e-06</v>
+        <v>1.283089679949318e-05</v>
       </c>
     </row>
     <row r="588">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="B588" t="n">
-        <v>6.816413924730751e-05</v>
+        <v>0.000136328278494615</v>
       </c>
     </row>
     <row r="589">
@@ -6331,7 +6331,7 @@
         </is>
       </c>
       <c r="B589" t="n">
-        <v>7.056993239721249e-05</v>
+        <v>0.000141139864794425</v>
       </c>
     </row>
     <row r="590">
@@ -6341,7 +6341,7 @@
         </is>
       </c>
       <c r="B590" t="n">
-        <v>2.405793149904971e-05</v>
+        <v>4.811586299809942e-05</v>
       </c>
     </row>
     <row r="591">
@@ -6351,7 +6351,7 @@
         </is>
       </c>
       <c r="B591" t="n">
-        <v>1.68405520493348e-05</v>
+        <v>3.36811040986696e-05</v>
       </c>
     </row>
     <row r="592">
@@ -6361,7 +6361,7 @@
         </is>
       </c>
       <c r="B592" t="n">
-        <v>0.0001668016583934113</v>
+        <v>0.0003336033167868227</v>
       </c>
     </row>
     <row r="593">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="B593" t="n">
-        <v>5.212551824794104e-05</v>
+        <v>0.0001042510364958821</v>
       </c>
     </row>
     <row r="594">
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="B594" t="n">
-        <v>1.443475889942983e-05</v>
+        <v>2.886951779885965e-05</v>
       </c>
     </row>
     <row r="595">
@@ -6391,7 +6391,7 @@
         </is>
       </c>
       <c r="B595" t="n">
-        <v>0.00013873407164452</v>
+        <v>0.00027746814328904</v>
       </c>
     </row>
     <row r="596">
@@ -6401,7 +6401,7 @@
         </is>
       </c>
       <c r="B596" t="n">
-        <v>5.693710454775098e-05</v>
+        <v>0.000113874209095502</v>
       </c>
     </row>
     <row r="597">
@@ -6411,7 +6411,7 @@
         </is>
       </c>
       <c r="B597" t="n">
-        <v>8.019310499683237e-06</v>
+        <v>1.603862099936647e-05</v>
       </c>
     </row>
     <row r="598">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="B598" t="n">
-        <v>9.623172599619885e-05</v>
+        <v>0.0001924634519923977</v>
       </c>
     </row>
     <row r="599">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="B599" t="n">
-        <v>4.330427669828948e-05</v>
+        <v>8.660855339657896e-05</v>
       </c>
     </row>
     <row r="600">
@@ -6442,7 +6442,7 @@
         </is>
       </c>
       <c r="B600" t="n">
-        <v>3.36811040986696e-05</v>
+        <v>6.736220819733919e-05</v>
       </c>
     </row>
     <row r="601">
@@ -6452,7 +6452,7 @@
         </is>
       </c>
       <c r="B601" t="n">
-        <v>7.217379449714913e-05</v>
+        <v>0.0001443475889942983</v>
       </c>
     </row>
     <row r="602">
@@ -6462,7 +6462,7 @@
         </is>
       </c>
       <c r="B602" t="n">
-        <v>6.896607029727584e-05</v>
+        <v>0.0001379321405945517</v>
       </c>
     </row>
     <row r="603">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="B603" t="n">
-        <v>1.202896574952486e-05</v>
+        <v>2.405793149904971e-05</v>
       </c>
     </row>
     <row r="604">
@@ -6483,7 +6483,7 @@
         </is>
       </c>
       <c r="B604" t="n">
-        <v>1.924634519923977e-05</v>
+        <v>3.849269039847954e-05</v>
       </c>
     </row>
     <row r="605">
@@ -6493,7 +6493,7 @@
         </is>
       </c>
       <c r="B605" t="n">
-        <v>1.924634519923977e-05</v>
+        <v>3.849269039847954e-05</v>
       </c>
     </row>
     <row r="606">
@@ -6503,7 +6503,7 @@
         </is>
       </c>
       <c r="B606" t="n">
-        <v>9.061820864642058e-05</v>
+        <v>0.0001812364172928412</v>
       </c>
     </row>
     <row r="607">
@@ -6513,7 +6513,7 @@
         </is>
       </c>
       <c r="B607" t="n">
-        <v>6.41544839974659e-06</v>
+        <v>1.283089679949318e-05</v>
       </c>
     </row>
     <row r="608">
@@ -6524,7 +6524,7 @@
         </is>
       </c>
       <c r="B608" t="n">
-        <v>4.971972509803607e-05</v>
+        <v>9.943945019607215e-05</v>
       </c>
     </row>
     <row r="609">
@@ -6534,7 +6534,7 @@
         </is>
       </c>
       <c r="B609" t="n">
-        <v>5.052165614800439e-05</v>
+        <v>0.0001010433122960088</v>
       </c>
     </row>
     <row r="610">
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="B610" t="n">
-        <v>3.688882829854289e-05</v>
+        <v>7.377765659708578e-05</v>
       </c>
     </row>
     <row r="611">
@@ -6554,7 +6554,7 @@
         </is>
       </c>
       <c r="B611" t="n">
-        <v>1.68405520493348e-05</v>
+        <v>3.36811040986696e-05</v>
       </c>
     </row>
     <row r="612">
@@ -6564,7 +6564,7 @@
         </is>
       </c>
       <c r="B612" t="n">
-        <v>5.693710454775098e-05</v>
+        <v>0.000113874209095502</v>
       </c>
     </row>
     <row r="613">
@@ -6574,7 +6574,7 @@
         </is>
       </c>
       <c r="B613" t="n">
-        <v>8.09950360468007e-05</v>
+        <v>0.0001619900720936014</v>
       </c>
     </row>
     <row r="614">
@@ -6584,7 +6584,7 @@
         </is>
       </c>
       <c r="B614" t="n">
-        <v>4.089848354838451e-05</v>
+        <v>8.179696709676901e-05</v>
       </c>
     </row>
     <row r="615">
@@ -6594,7 +6594,7 @@
         </is>
       </c>
       <c r="B615" t="n">
-        <v>5.292744929790937e-05</v>
+        <v>0.0001058548985958187</v>
       </c>
     </row>
     <row r="616">
@@ -6604,7 +6604,7 @@
         </is>
       </c>
       <c r="B616" t="n">
-        <v>5.292744929790937e-05</v>
+        <v>0.0001058548985958187</v>
       </c>
     </row>
     <row r="617">
@@ -6614,7 +6614,7 @@
         </is>
       </c>
       <c r="B617" t="n">
-        <v>0.0001154780711954386</v>
+        <v>0.0002309561423908772</v>
       </c>
     </row>
     <row r="618">
@@ -6625,7 +6625,7 @@
         </is>
       </c>
       <c r="B618" t="n">
-        <v>1.68405520493348e-05</v>
+        <v>3.36811040986696e-05</v>
       </c>
     </row>
     <row r="619">
@@ -6636,7 +6636,7 @@
         </is>
       </c>
       <c r="B619" t="n">
-        <v>9.222207074635723e-05</v>
+        <v>0.0001844441414927145</v>
       </c>
     </row>
     <row r="620">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="B620" t="n">
-        <v>3.608689724857456e-05</v>
+        <v>7.217379449714913e-05</v>
       </c>
     </row>
     <row r="621">
@@ -6656,7 +6656,7 @@
         </is>
       </c>
       <c r="B621" t="n">
-        <v>0.0001194877264452802</v>
+        <v>0.0002389754528905605</v>
       </c>
     </row>
     <row r="622">
@@ -6666,7 +6666,7 @@
         </is>
       </c>
       <c r="B622" t="n">
-        <v>9.14201396963889e-05</v>
+        <v>0.0001828402793927778</v>
       </c>
     </row>
     <row r="623">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B623" t="n">
-        <v>3.207724199873295e-06</v>
+        <v>6.41544839974659e-06</v>
       </c>
     </row>
     <row r="624">
@@ -6686,7 +6686,7 @@
         </is>
       </c>
       <c r="B624" t="n">
-        <v>8.821241549651562e-06</v>
+        <v>1.764248309930312e-05</v>
       </c>
     </row>
     <row r="625">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="B625" t="n">
-        <v>1.283089679949318e-05</v>
+        <v>2.566179359898636e-05</v>
       </c>
     </row>
     <row r="626">
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="B626" t="n">
-        <v>1.603862099936647e-06</v>
+        <v>3.207724199873295e-06</v>
       </c>
     </row>
     <row r="627">
@@ -6716,7 +6716,7 @@
         </is>
       </c>
       <c r="B627" t="n">
-        <v>7.939117394686405e-05</v>
+        <v>0.0001587823478937281</v>
       </c>
     </row>
     <row r="628">
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="B628" t="n">
-        <v>4.009655249841618e-06</v>
+        <v>8.019310499683237e-06</v>
       </c>
     </row>
     <row r="629">
@@ -6738,7 +6738,7 @@
         </is>
       </c>
       <c r="B629" t="n">
-        <v>6.335255294749758e-05</v>
+        <v>0.0001267051058949952</v>
       </c>
     </row>
     <row r="630">
@@ -6748,7 +6748,7 @@
         </is>
       </c>
       <c r="B630" t="n">
-        <v>2.405793149904971e-06</v>
+        <v>4.811586299809942e-06</v>
       </c>
     </row>
     <row r="631">
@@ -6759,7 +6759,7 @@
         </is>
       </c>
       <c r="B631" t="n">
-        <v>0.0002245406939911306</v>
+        <v>0.0004490813879822613</v>
       </c>
     </row>
     <row r="632">
@@ -6770,7 +6770,7 @@
         </is>
       </c>
       <c r="B632" t="n">
-        <v>1.202896574952486e-05</v>
+        <v>2.405793149904971e-05</v>
       </c>
     </row>
     <row r="633">
@@ -6780,7 +6780,7 @@
         </is>
       </c>
       <c r="B633" t="n">
-        <v>2.485986254901804e-05</v>
+        <v>4.971972509803607e-05</v>
       </c>
     </row>
     <row r="634">
@@ -6790,7 +6790,7 @@
         </is>
       </c>
       <c r="B634" t="n">
-        <v>4.651200089816277e-05</v>
+        <v>9.302400179632555e-05</v>
       </c>
     </row>
     <row r="635">
@@ -6800,7 +6800,7 @@
         </is>
       </c>
       <c r="B635" t="n">
-        <v>1.36328278494615e-05</v>
+        <v>2.726565569892301e-05</v>
       </c>
     </row>
     <row r="636">
@@ -6810,7 +6810,7 @@
         </is>
       </c>
       <c r="B636" t="n">
-        <v>1.36328278494615e-05</v>
+        <v>2.726565569892301e-05</v>
       </c>
     </row>
     <row r="637">
@@ -6820,7 +6820,7 @@
         </is>
       </c>
       <c r="B637" t="n">
-        <v>1.68405520493348e-05</v>
+        <v>3.36811040986696e-05</v>
       </c>
     </row>
     <row r="638">
@@ -6830,7 +6830,7 @@
         </is>
       </c>
       <c r="B638" t="n">
-        <v>0.0001507630373940449</v>
+        <v>0.0003015260747880897</v>
       </c>
     </row>
     <row r="639">
@@ -6840,7 +6840,7 @@
         </is>
       </c>
       <c r="B639" t="n">
-        <v>2.245406939911307e-05</v>
+        <v>4.490813879822613e-05</v>
       </c>
     </row>
     <row r="640">
@@ -6850,7 +6850,7 @@
         </is>
       </c>
       <c r="B640" t="n">
-        <v>6.335255294749758e-05</v>
+        <v>0.0001267051058949952</v>
       </c>
     </row>
     <row r="641">
@@ -6860,7 +6860,7 @@
         </is>
       </c>
       <c r="B641" t="n">
-        <v>7.056993239721249e-05</v>
+        <v>0.000141139864794425</v>
       </c>
     </row>
     <row r="642">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="B642" t="n">
-        <v>1.844441414927144e-05</v>
+        <v>3.688882829854289e-05</v>
       </c>
     </row>
     <row r="643">
@@ -6881,7 +6881,7 @@
         </is>
       </c>
       <c r="B643" t="n">
-        <v>6.09467597975926e-05</v>
+        <v>0.0001218935195951852</v>
       </c>
     </row>
     <row r="644">
@@ -6891,7 +6891,7 @@
         </is>
       </c>
       <c r="B644" t="n">
-        <v>2.405793149904971e-05</v>
+        <v>4.811586299809942e-05</v>
       </c>
     </row>
     <row r="645">
@@ -6901,7 +6901,7 @@
         </is>
       </c>
       <c r="B645" t="n">
-        <v>8.019310499683237e-07</v>
+        <v>1.603862099936647e-06</v>
       </c>
     </row>
     <row r="646">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B646" t="n">
-        <v>1.603862099936647e-06</v>
+        <v>3.207724199873295e-06</v>
       </c>
     </row>
     <row r="647">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="B647" t="n">
-        <v>3.127531094876462e-05</v>
+        <v>6.255062189752924e-05</v>
       </c>
     </row>
     <row r="648">
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="B648" t="n">
-        <v>3.287917304870127e-05</v>
+        <v>6.575834609740254e-05</v>
       </c>
     </row>
     <row r="649">
@@ -6941,7 +6941,7 @@
         </is>
       </c>
       <c r="B649" t="n">
-        <v>8.019310499683237e-06</v>
+        <v>1.603862099936647e-05</v>
       </c>
     </row>
     <row r="650">
@@ -6951,7 +6951,7 @@
         </is>
       </c>
       <c r="B650" t="n">
-        <v>8.821241549651562e-06</v>
+        <v>1.764248309930312e-05</v>
       </c>
     </row>
     <row r="651">
@@ -6961,7 +6961,7 @@
         </is>
       </c>
       <c r="B651" t="n">
-        <v>4.811586299809942e-06</v>
+        <v>9.623172599619885e-06</v>
       </c>
     </row>
     <row r="652">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="B652" t="n">
-        <v>4.811586299809942e-06</v>
+        <v>9.623172599619885e-06</v>
       </c>
     </row>
     <row r="653">
@@ -6981,7 +6981,7 @@
         </is>
       </c>
       <c r="B653" t="n">
-        <v>1.844441414927144e-05</v>
+        <v>3.688882829854289e-05</v>
       </c>
     </row>
     <row r="654">
@@ -6991,7 +6991,7 @@
         </is>
       </c>
       <c r="B654" t="n">
-        <v>9.623172599619885e-06</v>
+        <v>1.924634519923977e-05</v>
       </c>
     </row>
     <row r="655">
@@ -7001,7 +7001,7 @@
         </is>
       </c>
       <c r="B655" t="n">
-        <v>8.019310499683237e-06</v>
+        <v>1.603862099936647e-05</v>
       </c>
     </row>
     <row r="656">
@@ -7011,7 +7011,7 @@
         </is>
       </c>
       <c r="B656" t="n">
-        <v>1.924634519923977e-05</v>
+        <v>3.849269039847954e-05</v>
       </c>
     </row>
     <row r="657">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="B657" t="n">
-        <v>1.283089679949318e-05</v>
+        <v>2.566179359898636e-05</v>
       </c>
     </row>
     <row r="658">
@@ -7031,7 +7031,7 @@
         </is>
       </c>
       <c r="B658" t="n">
-        <v>1.68405520493348e-05</v>
+        <v>3.36811040986696e-05</v>
       </c>
     </row>
     <row r="659">
@@ -7041,7 +7041,7 @@
         </is>
       </c>
       <c r="B659" t="n">
-        <v>4.811586299809942e-06</v>
+        <v>9.623172599619885e-06</v>
       </c>
     </row>
     <row r="660">
@@ -7051,7 +7051,7 @@
         </is>
       </c>
       <c r="B660" t="n">
-        <v>6.415448399746589e-05</v>
+        <v>0.0001283089679949318</v>
       </c>
     </row>
     <row r="661">
@@ -7061,7 +7061,7 @@
         </is>
       </c>
       <c r="B661" t="n">
-        <v>5.132358719797272e-05</v>
+        <v>0.0001026471743959454</v>
       </c>
     </row>
     <row r="662">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B662" t="n">
-        <v>3.207724199873295e-06</v>
+        <v>6.41544839974659e-06</v>
       </c>
     </row>
     <row r="663">
@@ -7081,7 +7081,7 @@
         </is>
       </c>
       <c r="B663" t="n">
-        <v>5.613517349778266e-06</v>
+        <v>1.122703469955653e-05</v>
       </c>
     </row>
     <row r="664">
@@ -7092,7 +7092,7 @@
         </is>
       </c>
       <c r="B664" t="n">
-        <v>1.68405520493348e-05</v>
+        <v>3.36811040986696e-05</v>
       </c>
     </row>
     <row r="665">
@@ -7102,7 +7102,7 @@
         </is>
       </c>
       <c r="B665" t="n">
-        <v>6.41544839974659e-06</v>
+        <v>1.283089679949318e-05</v>
       </c>
     </row>
     <row r="666">
@@ -7112,7 +7112,7 @@
         </is>
       </c>
       <c r="B666" t="n">
-        <v>2.566179359898636e-05</v>
+        <v>5.132358719797272e-05</v>
       </c>
     </row>
     <row r="667">
@@ -7122,7 +7122,7 @@
         </is>
       </c>
       <c r="B667" t="n">
-        <v>2.726565569892301e-05</v>
+        <v>5.453131139784602e-05</v>
       </c>
     </row>
     <row r="668">
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="B668" t="n">
-        <v>5.212551824794104e-05</v>
+        <v>0.0001042510364958821</v>
       </c>
     </row>
     <row r="669">
@@ -7142,7 +7142,7 @@
         </is>
       </c>
       <c r="B669" t="n">
-        <v>6.41544839974659e-06</v>
+        <v>1.283089679949318e-05</v>
       </c>
     </row>
     <row r="670">
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="B670" t="n">
-        <v>2.566179359898636e-05</v>
+        <v>5.132358719797272e-05</v>
       </c>
     </row>
     <row r="671">
@@ -7162,7 +7162,7 @@
         </is>
       </c>
       <c r="B671" t="n">
-        <v>3.207724199873295e-06</v>
+        <v>6.41544839974659e-06</v>
       </c>
     </row>
     <row r="672">
@@ -7172,7 +7172,7 @@
         </is>
       </c>
       <c r="B672" t="n">
-        <v>3.207724199873295e-06</v>
+        <v>6.41544839974659e-06</v>
       </c>
     </row>
     <row r="673">
@@ -7182,7 +7182,7 @@
         </is>
       </c>
       <c r="B673" t="n">
-        <v>6.41544839974659e-06</v>
+        <v>1.283089679949318e-05</v>
       </c>
     </row>
     <row r="674">
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="B674" t="n">
-        <v>3.207724199873295e-06</v>
+        <v>6.41544839974659e-06</v>
       </c>
     </row>
     <row r="675">
@@ -7202,7 +7202,7 @@
         </is>
       </c>
       <c r="B675" t="n">
-        <v>1.202896574952486e-05</v>
+        <v>2.405793149904971e-05</v>
       </c>
     </row>
     <row r="676">
@@ -7212,7 +7212,7 @@
         </is>
       </c>
       <c r="B676" t="n">
-        <v>2.165213834914474e-05</v>
+        <v>4.330427669828948e-05</v>
       </c>
     </row>
     <row r="677">
@@ -7222,7 +7222,7 @@
         </is>
       </c>
       <c r="B677" t="n">
-        <v>8.821241549651562e-06</v>
+        <v>1.764248309930312e-05</v>
       </c>
     </row>
     <row r="678">
@@ -7233,7 +7233,7 @@
         </is>
       </c>
       <c r="B678" t="n">
-        <v>8.821241549651562e-06</v>
+        <v>1.764248309930312e-05</v>
       </c>
     </row>
     <row r="679">
@@ -7243,7 +7243,7 @@
         </is>
       </c>
       <c r="B679" t="n">
-        <v>8.821241549651562e-06</v>
+        <v>1.764248309930312e-05</v>
       </c>
     </row>
     <row r="680">
@@ -7253,7 +7253,7 @@
         </is>
       </c>
       <c r="B680" t="n">
-        <v>3.207724199873295e-06</v>
+        <v>6.41544839974659e-06</v>
       </c>
     </row>
     <row r="681">
@@ -7264,7 +7264,7 @@
         </is>
       </c>
       <c r="B681" t="n">
-        <v>1.042510364958821e-05</v>
+        <v>2.085020729917642e-05</v>
       </c>
     </row>
     <row r="682">
@@ -7274,7 +7274,7 @@
         </is>
       </c>
       <c r="B682" t="n">
-        <v>6.41544839974659e-06</v>
+        <v>1.283089679949318e-05</v>
       </c>
     </row>
     <row r="683">
@@ -7284,7 +7284,7 @@
         </is>
       </c>
       <c r="B683" t="n">
-        <v>4.009655249841618e-06</v>
+        <v>8.019310499683237e-06</v>
       </c>
     </row>
     <row r="684">
@@ -7294,7 +7294,7 @@
         </is>
       </c>
       <c r="B684" t="n">
-        <v>5.613517349778266e-06</v>
+        <v>1.122703469955653e-05</v>
       </c>
     </row>
     <row r="685">
@@ -7304,7 +7304,7 @@
         </is>
       </c>
       <c r="B685" t="n">
-        <v>9.623172599619885e-06</v>
+        <v>1.924634519923977e-05</v>
       </c>
     </row>
     <row r="686">
@@ -7314,7 +7314,7 @@
         </is>
       </c>
       <c r="B686" t="n">
-        <v>7.217379449714914e-06</v>
+        <v>1.443475889942983e-05</v>
       </c>
     </row>
     <row r="687">
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="B687" t="n">
-        <v>1.68405520493348e-05</v>
+        <v>3.36811040986696e-05</v>
       </c>
     </row>
     <row r="688">
@@ -7334,7 +7334,7 @@
         </is>
       </c>
       <c r="B688" t="n">
-        <v>1.603862099936647e-06</v>
+        <v>3.207724199873295e-06</v>
       </c>
     </row>
     <row r="689">
@@ -7344,7 +7344,7 @@
         </is>
       </c>
       <c r="B689" t="n">
-        <v>5.613517349778266e-06</v>
+        <v>1.122703469955653e-05</v>
       </c>
     </row>
     <row r="690">
@@ -7354,7 +7354,7 @@
         </is>
       </c>
       <c r="B690" t="n">
-        <v>4.009655249841618e-06</v>
+        <v>8.019310499683237e-06</v>
       </c>
     </row>
     <row r="691">
@@ -7364,7 +7364,7 @@
         </is>
       </c>
       <c r="B691" t="n">
-        <v>3.207724199873295e-06</v>
+        <v>6.41544839974659e-06</v>
       </c>
     </row>
     <row r="692">
@@ -7374,7 +7374,7 @@
         </is>
       </c>
       <c r="B692" t="n">
-        <v>4.009655249841618e-06</v>
+        <v>8.019310499683237e-06</v>
       </c>
     </row>
     <row r="693">
@@ -7384,7 +7384,7 @@
         </is>
       </c>
       <c r="B693" t="n">
-        <v>2.405793149904971e-06</v>
+        <v>4.811586299809942e-06</v>
       </c>
     </row>
     <row r="694">
@@ -7395,7 +7395,7 @@
         </is>
       </c>
       <c r="B694" t="n">
-        <v>2.245406939911307e-05</v>
+        <v>4.490813879822613e-05</v>
       </c>
     </row>
     <row r="695">
@@ -7405,7 +7405,7 @@
         </is>
       </c>
       <c r="B695" t="n">
-        <v>8.019310499683237e-07</v>
+        <v>1.603862099936647e-06</v>
       </c>
     </row>
     <row r="696">
@@ -7415,7 +7415,7 @@
         </is>
       </c>
       <c r="B696" t="n">
-        <v>2.405793149904971e-06</v>
+        <v>4.811586299809942e-06</v>
       </c>
     </row>
     <row r="697">
@@ -7425,7 +7425,7 @@
         </is>
       </c>
       <c r="B697" t="n">
-        <v>4.811586299809942e-06</v>
+        <v>9.623172599619885e-06</v>
       </c>
     </row>
     <row r="698">
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="B698" t="n">
-        <v>1.603862099936647e-06</v>
+        <v>3.207724199873295e-06</v>
       </c>
     </row>
     <row r="699">
@@ -7445,7 +7445,7 @@
         </is>
       </c>
       <c r="B699" t="n">
-        <v>8.019310499683237e-07</v>
+        <v>1.603862099936647e-06</v>
       </c>
     </row>
     <row r="700">
@@ -7456,7 +7456,7 @@
         </is>
       </c>
       <c r="B700" t="n">
-        <v>5.934289769765596e-05</v>
+        <v>0.0001186857953953119</v>
       </c>
     </row>
     <row r="701">
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="B701" t="n">
-        <v>1.603862099936647e-06</v>
+        <v>3.207724199873295e-06</v>
       </c>
     </row>
     <row r="702">
@@ -7477,7 +7477,7 @@
         </is>
       </c>
       <c r="B702" t="n">
-        <v>2.485986254901804e-05</v>
+        <v>4.971972509803607e-05</v>
       </c>
     </row>
     <row r="703">
@@ -7487,7 +7487,7 @@
         </is>
       </c>
       <c r="B703" t="n">
-        <v>3.04733798987963e-05</v>
+        <v>6.09467597975926e-05</v>
       </c>
     </row>
     <row r="704">
@@ -7497,7 +7497,7 @@
         </is>
       </c>
       <c r="B704" t="n">
-        <v>7.217379449714914e-06</v>
+        <v>1.443475889942983e-05</v>
       </c>
     </row>
     <row r="705">
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="B705" t="n">
-        <v>4.009655249841618e-06</v>
+        <v>8.019310499683237e-06</v>
       </c>
     </row>
     <row r="706">
@@ -7517,7 +7517,7 @@
         </is>
       </c>
       <c r="B706" t="n">
-        <v>1.042510364958821e-05</v>
+        <v>2.085020729917642e-05</v>
       </c>
     </row>
     <row r="707">
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="B707" t="n">
-        <v>2.646372464895468e-05</v>
+        <v>5.292744929790937e-05</v>
       </c>
     </row>
     <row r="708">
@@ -7538,7 +7538,7 @@
         </is>
       </c>
       <c r="B708" t="n">
-        <v>5.613517349778266e-06</v>
+        <v>1.122703469955653e-05</v>
       </c>
     </row>
     <row r="709">
@@ -7548,7 +7548,7 @@
         </is>
       </c>
       <c r="B709" t="n">
-        <v>2.646372464895468e-05</v>
+        <v>5.292744929790937e-05</v>
       </c>
     </row>
     <row r="710">
@@ -7558,7 +7558,7 @@
         </is>
       </c>
       <c r="B710" t="n">
-        <v>3.127531094876462e-05</v>
+        <v>6.255062189752924e-05</v>
       </c>
     </row>
     <row r="711">
@@ -7568,7 +7568,7 @@
         </is>
       </c>
       <c r="B711" t="n">
-        <v>3.127531094876462e-05</v>
+        <v>6.255062189752924e-05</v>
       </c>
     </row>
     <row r="712">
@@ -7578,7 +7578,7 @@
         </is>
       </c>
       <c r="B712" t="n">
-        <v>1.523668994939815e-05</v>
+        <v>3.04733798987963e-05</v>
       </c>
     </row>
     <row r="713">
@@ -7588,7 +7588,7 @@
         </is>
       </c>
       <c r="B713" t="n">
-        <v>8.019310499683237e-07</v>
+        <v>1.603862099936647e-06</v>
       </c>
     </row>
     <row r="714">
@@ -7598,7 +7598,7 @@
         </is>
       </c>
       <c r="B714" t="n">
-        <v>1.924634519923977e-05</v>
+        <v>3.849269039847954e-05</v>
       </c>
     </row>
     <row r="715">
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="B715" t="n">
-        <v>4.009655249841618e-06</v>
+        <v>8.019310499683237e-06</v>
       </c>
     </row>
     <row r="716">
@@ -7618,7 +7618,7 @@
         </is>
       </c>
       <c r="B716" t="n">
-        <v>4.009655249841618e-06</v>
+        <v>8.019310499683237e-06</v>
       </c>
     </row>
     <row r="717">
@@ -7628,7 +7628,7 @@
         </is>
       </c>
       <c r="B717" t="n">
-        <v>3.207724199873295e-06</v>
+        <v>6.41544839974659e-06</v>
       </c>
     </row>
     <row r="718">
@@ -7638,7 +7638,7 @@
         </is>
       </c>
       <c r="B718" t="n">
-        <v>8.019310499683237e-06</v>
+        <v>1.603862099936647e-05</v>
       </c>
     </row>
     <row r="719">
@@ -7648,7 +7648,7 @@
         </is>
       </c>
       <c r="B719" t="n">
-        <v>2.165213834914474e-05</v>
+        <v>4.330427669828948e-05</v>
       </c>
     </row>
     <row r="720">
@@ -7658,7 +7658,7 @@
         </is>
       </c>
       <c r="B720" t="n">
-        <v>8.019310499683237e-07</v>
+        <v>1.603862099936647e-06</v>
       </c>
     </row>
     <row r="721">
@@ -7668,7 +7668,7 @@
         </is>
       </c>
       <c r="B721" t="n">
-        <v>2.405793149904971e-06</v>
+        <v>4.811586299809942e-06</v>
       </c>
     </row>
     <row r="722">
@@ -7679,7 +7679,7 @@
         </is>
       </c>
       <c r="B722" t="n">
-        <v>1.283089679949318e-05</v>
+        <v>2.566179359898636e-05</v>
       </c>
     </row>
     <row r="723">
@@ -7689,7 +7689,7 @@
         </is>
       </c>
       <c r="B723" t="n">
-        <v>5.613517349778266e-06</v>
+        <v>1.122703469955653e-05</v>
       </c>
     </row>
     <row r="724">
@@ -7699,7 +7699,7 @@
         </is>
       </c>
       <c r="B724" t="n">
-        <v>2.566179359898636e-05</v>
+        <v>5.132358719797272e-05</v>
       </c>
     </row>
     <row r="725">
@@ -7709,7 +7709,7 @@
         </is>
       </c>
       <c r="B725" t="n">
-        <v>2.405793149904971e-06</v>
+        <v>4.811586299809942e-06</v>
       </c>
     </row>
     <row r="726">
@@ -7720,7 +7720,7 @@
         </is>
       </c>
       <c r="B726" t="n">
-        <v>3.127531094876462e-05</v>
+        <v>6.255062189752924e-05</v>
       </c>
     </row>
     <row r="727">
@@ -7730,7 +7730,7 @@
         </is>
       </c>
       <c r="B727" t="n">
-        <v>3.127531094876462e-05</v>
+        <v>6.255062189752924e-05</v>
       </c>
     </row>
     <row r="728">
@@ -7740,7 +7740,7 @@
         </is>
       </c>
       <c r="B728" t="n">
-        <v>2.245406939911307e-05</v>
+        <v>4.490813879822613e-05</v>
       </c>
     </row>
     <row r="729">
@@ -7750,7 +7750,7 @@
         </is>
       </c>
       <c r="B729" t="n">
-        <v>1.603862099936647e-05</v>
+        <v>3.207724199873295e-05</v>
       </c>
     </row>
     <row r="730">
@@ -7760,7 +7760,7 @@
         </is>
       </c>
       <c r="B730" t="n">
-        <v>4.811586299809942e-06</v>
+        <v>9.623172599619885e-06</v>
       </c>
     </row>
     <row r="731">
@@ -7770,7 +7770,7 @@
         </is>
       </c>
       <c r="B731" t="n">
-        <v>1.603862099936647e-06</v>
+        <v>3.207724199873295e-06</v>
       </c>
     </row>
     <row r="732">
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B732" t="n">
-        <v>1.122703469955653e-05</v>
+        <v>2.245406939911307e-05</v>
       </c>
     </row>
     <row r="733">
@@ -7790,7 +7790,7 @@
         </is>
       </c>
       <c r="B733" t="n">
-        <v>8.019310499683237e-07</v>
+        <v>1.603862099936647e-06</v>
       </c>
     </row>
     <row r="734">
@@ -7800,7 +7800,7 @@
         </is>
       </c>
       <c r="B734" t="n">
-        <v>3.207724199873295e-06</v>
+        <v>6.41544839974659e-06</v>
       </c>
     </row>
     <row r="735">
@@ -7810,7 +7810,7 @@
         </is>
       </c>
       <c r="B735" t="n">
-        <v>2.405793149904971e-06</v>
+        <v>4.811586299809942e-06</v>
       </c>
     </row>
     <row r="736">
@@ -7820,7 +7820,7 @@
         </is>
       </c>
       <c r="B736" t="n">
-        <v>2.405793149904971e-06</v>
+        <v>4.811586299809942e-06</v>
       </c>
     </row>
     <row r="737">
@@ -7830,7 +7830,7 @@
         </is>
       </c>
       <c r="B737" t="n">
-        <v>1.924634519923977e-05</v>
+        <v>3.849269039847954e-05</v>
       </c>
     </row>
     <row r="738">
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="B738" t="n">
-        <v>1.283089679949318e-05</v>
+        <v>2.566179359898636e-05</v>
       </c>
     </row>
     <row r="739">
@@ -7851,7 +7851,7 @@
         </is>
       </c>
       <c r="B739" t="n">
-        <v>8.019310499683237e-07</v>
+        <v>1.603862099936647e-06</v>
       </c>
     </row>
     <row r="740">
@@ -7861,7 +7861,7 @@
         </is>
       </c>
       <c r="B740" t="n">
-        <v>8.019310499683237e-07</v>
+        <v>1.603862099936647e-06</v>
       </c>
     </row>
     <row r="741">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="B741" t="n">
-        <v>8.019310499683237e-06</v>
+        <v>1.603862099936647e-05</v>
       </c>
     </row>
     <row r="742">
@@ -7881,7 +7881,7 @@
         </is>
       </c>
       <c r="B742" t="n">
-        <v>0.0001066568296457871</v>
+        <v>0.0002133136592915741</v>
       </c>
     </row>
     <row r="743">
@@ -7892,7 +7892,7 @@
         </is>
       </c>
       <c r="B743" t="n">
-        <v>1.202896574952486e-05</v>
+        <v>2.405793149904971e-05</v>
       </c>
     </row>
     <row r="744">
@@ -7903,7 +7903,7 @@
         </is>
       </c>
       <c r="B744" t="n">
-        <v>4.009655249841618e-06</v>
+        <v>8.019310499683237e-06</v>
       </c>
     </row>
     <row r="745">
@@ -7914,7 +7914,7 @@
         </is>
       </c>
       <c r="B745" t="n">
-        <v>5.613517349778266e-06</v>
+        <v>1.122703469955653e-05</v>
       </c>
     </row>
     <row r="746">
@@ -7924,7 +7924,7 @@
         </is>
       </c>
       <c r="B746" t="n">
-        <v>7.217379449714914e-06</v>
+        <v>1.443475889942983e-05</v>
       </c>
     </row>
     <row r="747">
@@ -7934,7 +7934,7 @@
         </is>
       </c>
       <c r="B747" t="n">
-        <v>8.019310499683237e-06</v>
+        <v>1.603862099936647e-05</v>
       </c>
     </row>
     <row r="748">
@@ -7944,7 +7944,7 @@
         </is>
       </c>
       <c r="B748" t="n">
-        <v>1.603862099936647e-06</v>
+        <v>3.207724199873295e-06</v>
       </c>
     </row>
     <row r="749">
@@ -7954,7 +7954,7 @@
         </is>
       </c>
       <c r="B749" t="n">
-        <v>3.207724199873295e-06</v>
+        <v>6.41544839974659e-06</v>
       </c>
     </row>
     <row r="750">
@@ -7964,7 +7964,7 @@
         </is>
       </c>
       <c r="B750" t="n">
-        <v>3.36811040986696e-05</v>
+        <v>6.736220819733919e-05</v>
       </c>
     </row>
     <row r="751">
@@ -7974,7 +7974,7 @@
         </is>
       </c>
       <c r="B751" t="n">
-        <v>7.217379449714914e-06</v>
+        <v>1.443475889942983e-05</v>
       </c>
     </row>
     <row r="752">
@@ -7984,7 +7984,7 @@
         </is>
       </c>
       <c r="B752" t="n">
-        <v>2.405793149904971e-06</v>
+        <v>4.811586299809942e-06</v>
       </c>
     </row>
     <row r="753">
@@ -7994,7 +7994,7 @@
         </is>
       </c>
       <c r="B753" t="n">
-        <v>2.405793149904971e-06</v>
+        <v>4.811586299809942e-06</v>
       </c>
     </row>
     <row r="754">
@@ -8004,7 +8004,7 @@
         </is>
       </c>
       <c r="B754" t="n">
-        <v>3.207724199873295e-06</v>
+        <v>6.41544839974659e-06</v>
       </c>
     </row>
     <row r="755">
@@ -8014,7 +8014,7 @@
         </is>
       </c>
       <c r="B755" t="n">
-        <v>2.405793149904971e-06</v>
+        <v>4.811586299809942e-06</v>
       </c>
     </row>
     <row r="756">
@@ -8024,7 +8024,7 @@
         </is>
       </c>
       <c r="B756" t="n">
-        <v>8.019310499683237e-07</v>
+        <v>1.603862099936647e-06</v>
       </c>
     </row>
     <row r="757">
@@ -8034,7 +8034,7 @@
         </is>
       </c>
       <c r="B757" t="n">
-        <v>6.41544839974659e-06</v>
+        <v>1.283089679949318e-05</v>
       </c>
     </row>
     <row r="758">
@@ -8044,7 +8044,7 @@
         </is>
       </c>
       <c r="B758" t="n">
-        <v>7.217379449714914e-06</v>
+        <v>1.443475889942983e-05</v>
       </c>
     </row>
     <row r="759">
@@ -8054,7 +8054,7 @@
         </is>
       </c>
       <c r="B759" t="n">
-        <v>4.811586299809942e-06</v>
+        <v>9.623172599619885e-06</v>
       </c>
     </row>
     <row r="760">
@@ -8064,7 +8064,7 @@
         </is>
       </c>
       <c r="B760" t="n">
-        <v>3.207724199873295e-06</v>
+        <v>6.41544839974659e-06</v>
       </c>
     </row>
     <row r="761">
@@ -8074,7 +8074,7 @@
         </is>
       </c>
       <c r="B761" t="n">
-        <v>8.019310499683237e-07</v>
+        <v>1.603862099936647e-06</v>
       </c>
     </row>
     <row r="762">
@@ -8084,7 +8084,7 @@
         </is>
       </c>
       <c r="B762" t="n">
-        <v>3.207724199873295e-06</v>
+        <v>6.41544839974659e-06</v>
       </c>
     </row>
     <row r="763">
@@ -8095,7 +8095,7 @@
         </is>
       </c>
       <c r="B763" t="n">
-        <v>1.122703469955653e-05</v>
+        <v>2.245406939911307e-05</v>
       </c>
     </row>
     <row r="764">
@@ -8105,7 +8105,7 @@
         </is>
       </c>
       <c r="B764" t="n">
-        <v>3.207724199873295e-06</v>
+        <v>6.41544839974659e-06</v>
       </c>
     </row>
     <row r="765">
@@ -8115,7 +8115,7 @@
         </is>
       </c>
       <c r="B765" t="n">
-        <v>9.623172599619885e-06</v>
+        <v>1.924634519923977e-05</v>
       </c>
     </row>
     <row r="766">
@@ -8125,7 +8125,7 @@
         </is>
       </c>
       <c r="B766" t="n">
-        <v>2.405793149904971e-06</v>
+        <v>4.811586299809942e-06</v>
       </c>
     </row>
     <row r="767">
@@ -8135,7 +8135,7 @@
         </is>
       </c>
       <c r="B767" t="n">
-        <v>6.41544839974659e-06</v>
+        <v>1.283089679949318e-05</v>
       </c>
     </row>
     <row r="768">
@@ -8145,7 +8145,7 @@
         </is>
       </c>
       <c r="B768" t="n">
-        <v>1.202896574952486e-05</v>
+        <v>2.405793149904971e-05</v>
       </c>
     </row>
     <row r="769">
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="B769" t="n">
-        <v>4.811586299809942e-06</v>
+        <v>9.623172599619885e-06</v>
       </c>
     </row>
     <row r="770">
@@ -8165,7 +8165,7 @@
         </is>
       </c>
       <c r="B770" t="n">
-        <v>4.811586299809942e-06</v>
+        <v>9.623172599619885e-06</v>
       </c>
     </row>
     <row r="771">
@@ -8175,7 +8175,7 @@
         </is>
       </c>
       <c r="B771" t="n">
-        <v>8.019310499683237e-07</v>
+        <v>1.603862099936647e-06</v>
       </c>
     </row>
     <row r="772">
@@ -8185,7 +8185,7 @@
         </is>
       </c>
       <c r="B772" t="n">
-        <v>8.019310499683237e-06</v>
+        <v>1.603862099936647e-05</v>
       </c>
     </row>
     <row r="773">
@@ -8195,7 +8195,7 @@
         </is>
       </c>
       <c r="B773" t="n">
-        <v>6.41544839974659e-06</v>
+        <v>1.283089679949318e-05</v>
       </c>
     </row>
     <row r="774">
@@ -8205,7 +8205,7 @@
         </is>
       </c>
       <c r="B774" t="n">
-        <v>1.603862099936647e-06</v>
+        <v>3.207724199873295e-06</v>
       </c>
     </row>
     <row r="775">
@@ -8215,7 +8215,7 @@
         </is>
       </c>
       <c r="B775" t="n">
-        <v>8.019310499683237e-06</v>
+        <v>1.603862099936647e-05</v>
       </c>
     </row>
     <row r="776">
@@ -8225,7 +8225,7 @@
         </is>
       </c>
       <c r="B776" t="n">
-        <v>8.019310499683237e-07</v>
+        <v>1.603862099936647e-06</v>
       </c>
     </row>
     <row r="777">
@@ -8235,7 +8235,7 @@
         </is>
       </c>
       <c r="B777" t="n">
-        <v>7.217379449714914e-06</v>
+        <v>1.443475889942983e-05</v>
       </c>
     </row>
     <row r="778">
@@ -8245,7 +8245,7 @@
         </is>
       </c>
       <c r="B778" t="n">
-        <v>8.019310499683237e-06</v>
+        <v>1.603862099936647e-05</v>
       </c>
     </row>
     <row r="779">
@@ -8255,7 +8255,7 @@
         </is>
       </c>
       <c r="B779" t="n">
-        <v>3.207724199873295e-06</v>
+        <v>6.41544839974659e-06</v>
       </c>
     </row>
     <row r="780">
@@ -8265,7 +8265,7 @@
         </is>
       </c>
       <c r="B780" t="n">
-        <v>1.603862099936647e-06</v>
+        <v>3.207724199873295e-06</v>
       </c>
     </row>
     <row r="781">
@@ -8275,7 +8275,7 @@
         </is>
       </c>
       <c r="B781" t="n">
-        <v>8.019310499683237e-07</v>
+        <v>1.603862099936647e-06</v>
       </c>
     </row>
     <row r="782">
@@ -8286,7 +8286,7 @@
         </is>
       </c>
       <c r="B782" t="n">
-        <v>4.811586299809942e-06</v>
+        <v>9.623172599619885e-06</v>
       </c>
     </row>
     <row r="783">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="B783" t="n">
-        <v>9.623172599619885e-06</v>
+        <v>1.924634519923977e-05</v>
       </c>
     </row>
     <row r="784">
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="B784" t="n">
-        <v>2.405793149904971e-06</v>
+        <v>4.811586299809942e-06</v>
       </c>
     </row>
     <row r="785">
@@ -8316,7 +8316,7 @@
         </is>
       </c>
       <c r="B785" t="n">
-        <v>4.811586299809942e-06</v>
+        <v>9.623172599619885e-06</v>
       </c>
     </row>
     <row r="786">
@@ -8326,7 +8326,7 @@
         </is>
       </c>
       <c r="B786" t="n">
-        <v>2.405793149904971e-06</v>
+        <v>4.811586299809942e-06</v>
       </c>
     </row>
     <row r="787">
@@ -8337,7 +8337,7 @@
         </is>
       </c>
       <c r="B787" t="n">
-        <v>3.207724199873295e-06</v>
+        <v>6.41544839974659e-06</v>
       </c>
     </row>
     <row r="788">
@@ -8347,7 +8347,7 @@
         </is>
       </c>
       <c r="B788" t="n">
-        <v>2.405793149904971e-06</v>
+        <v>4.811586299809942e-06</v>
       </c>
     </row>
     <row r="789">
@@ -8357,7 +8357,7 @@
         </is>
       </c>
       <c r="B789" t="n">
-        <v>1.603862099936647e-06</v>
+        <v>3.207724199873295e-06</v>
       </c>
     </row>
     <row r="790">
@@ -8367,7 +8367,7 @@
         </is>
       </c>
       <c r="B790" t="n">
-        <v>1.603862099936647e-06</v>
+        <v>3.207724199873295e-06</v>
       </c>
     </row>
     <row r="791">
@@ -8377,7 +8377,7 @@
         </is>
       </c>
       <c r="B791" t="n">
-        <v>4.009655249841618e-06</v>
+        <v>8.019310499683237e-06</v>
       </c>
     </row>
     <row r="792">
@@ -8387,7 +8387,7 @@
         </is>
       </c>
       <c r="B792" t="n">
-        <v>1.36328278494615e-05</v>
+        <v>2.726565569892301e-05</v>
       </c>
     </row>
     <row r="793">
@@ -8398,7 +8398,7 @@
         </is>
       </c>
       <c r="B793" t="n">
-        <v>8.019310499683237e-07</v>
+        <v>1.603862099936647e-06</v>
       </c>
     </row>
     <row r="794">
@@ -8408,7 +8408,7 @@
         </is>
       </c>
       <c r="B794" t="n">
-        <v>2.405793149904971e-06</v>
+        <v>4.811586299809942e-06</v>
       </c>
     </row>
     <row r="795">
@@ -8418,7 +8418,7 @@
         </is>
       </c>
       <c r="B795" t="n">
-        <v>8.019310499683237e-07</v>
+        <v>1.603862099936647e-06</v>
       </c>
     </row>
     <row r="796">
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="B796" t="n">
-        <v>3.207724199873295e-06</v>
+        <v>6.41544839974659e-06</v>
       </c>
     </row>
     <row r="797">
@@ -8438,7 +8438,7 @@
         </is>
       </c>
       <c r="B797" t="n">
-        <v>1.603862099936647e-06</v>
+        <v>3.207724199873295e-06</v>
       </c>
     </row>
     <row r="798">
@@ -8448,7 +8448,7 @@
         </is>
       </c>
       <c r="B798" t="n">
-        <v>2.405793149904971e-06</v>
+        <v>4.811586299809942e-06</v>
       </c>
     </row>
     <row r="799">
@@ -8459,7 +8459,7 @@
         </is>
       </c>
       <c r="B799" t="n">
-        <v>1.603862099936647e-06</v>
+        <v>3.207724199873295e-06</v>
       </c>
     </row>
     <row r="800">
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="B800" t="n">
-        <v>8.019310499683237e-07</v>
+        <v>1.603862099936647e-06</v>
       </c>
     </row>
     <row r="801">
@@ -8480,7 +8480,7 @@
         </is>
       </c>
       <c r="B801" t="n">
-        <v>8.019310499683237e-07</v>
+        <v>1.603862099936647e-06</v>
       </c>
     </row>
     <row r="802">
@@ -8491,7 +8491,7 @@
         </is>
       </c>
       <c r="B802" t="n">
-        <v>1.603862099936647e-06</v>
+        <v>3.207724199873295e-06</v>
       </c>
     </row>
     <row r="803">
@@ -8501,7 +8501,7 @@
         </is>
       </c>
       <c r="B803" t="n">
-        <v>4.811586299809942e-06</v>
+        <v>9.623172599619885e-06</v>
       </c>
     </row>
     <row r="804">
@@ -8511,7 +8511,7 @@
         </is>
       </c>
       <c r="B804" t="n">
-        <v>8.019310499683237e-07</v>
+        <v>1.603862099936647e-06</v>
       </c>
     </row>
     <row r="805">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="B805" t="n">
-        <v>2.405793149904971e-06</v>
+        <v>4.811586299809942e-06</v>
       </c>
     </row>
     <row r="806">
@@ -8531,7 +8531,7 @@
         </is>
       </c>
       <c r="B806" t="n">
-        <v>2.405793149904971e-06</v>
+        <v>4.811586299809942e-06</v>
       </c>
     </row>
     <row r="807">
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="B807" t="n">
-        <v>8.019310499683237e-07</v>
+        <v>1.603862099936647e-06</v>
       </c>
     </row>
     <row r="808">
@@ -8551,7 +8551,7 @@
         </is>
       </c>
       <c r="B808" t="n">
-        <v>1.603862099936647e-06</v>
+        <v>3.207724199873295e-06</v>
       </c>
     </row>
     <row r="809">
@@ -8562,7 +8562,7 @@
         </is>
       </c>
       <c r="B809" t="n">
-        <v>5.613517349778266e-06</v>
+        <v>1.122703469955653e-05</v>
       </c>
     </row>
     <row r="810">
@@ -8572,7 +8572,7 @@
         </is>
       </c>
       <c r="B810" t="n">
-        <v>1.603862099936647e-06</v>
+        <v>3.207724199873295e-06</v>
       </c>
     </row>
     <row r="811">
@@ -8582,7 +8582,7 @@
         </is>
       </c>
       <c r="B811" t="n">
-        <v>8.019310499683237e-07</v>
+        <v>1.603862099936647e-06</v>
       </c>
     </row>
     <row r="812">
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="B812" t="n">
-        <v>8.019310499683237e-07</v>
+        <v>1.603862099936647e-06</v>
       </c>
     </row>
     <row r="813">
@@ -8602,7 +8602,7 @@
         </is>
       </c>
       <c r="B813" t="n">
-        <v>1.603862099936647e-06</v>
+        <v>3.207724199873295e-06</v>
       </c>
     </row>
     <row r="814">
@@ -8612,7 +8612,7 @@
         </is>
       </c>
       <c r="B814" t="n">
-        <v>8.019310499683237e-07</v>
+        <v>1.603862099936647e-06</v>
       </c>
     </row>
     <row r="815">
@@ -8622,7 +8622,7 @@
         </is>
       </c>
       <c r="B815" t="n">
-        <v>1.603862099936647e-06</v>
+        <v>3.207724199873295e-06</v>
       </c>
     </row>
     <row r="816">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="B816" t="n">
-        <v>8.019310499683237e-07</v>
+        <v>1.603862099936647e-06</v>
       </c>
     </row>
     <row r="817">
@@ -8642,7 +8642,7 @@
         </is>
       </c>
       <c r="B817" t="n">
-        <v>2.405793149904971e-06</v>
+        <v>4.811586299809942e-06</v>
       </c>
     </row>
     <row r="818">
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="B818" t="n">
-        <v>8.019310499683237e-07</v>
+        <v>1.603862099936647e-06</v>
       </c>
     </row>
     <row r="819">
@@ -8662,7 +8662,7 @@
         </is>
       </c>
       <c r="B819" t="n">
-        <v>1.603862099936647e-06</v>
+        <v>3.207724199873295e-06</v>
       </c>
     </row>
     <row r="820">
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="B820" t="n">
-        <v>1.603862099936647e-06</v>
+        <v>3.207724199873295e-06</v>
       </c>
     </row>
     <row r="821">
@@ -8682,7 +8682,7 @@
         </is>
       </c>
       <c r="B821" t="n">
-        <v>8.019310499683237e-07</v>
+        <v>1.603862099936647e-06</v>
       </c>
     </row>
     <row r="822">
@@ -8692,7 +8692,7 @@
         </is>
       </c>
       <c r="B822" t="n">
-        <v>8.019310499683237e-07</v>
+        <v>1.603862099936647e-06</v>
       </c>
     </row>
     <row r="823">
@@ -8702,7 +8702,7 @@
         </is>
       </c>
       <c r="B823" t="n">
-        <v>8.019310499683237e-07</v>
+        <v>1.603862099936647e-06</v>
       </c>
     </row>
     <row r="824">
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="B824" t="n">
-        <v>8.019310499683237e-07</v>
+        <v>1.603862099936647e-06</v>
       </c>
     </row>
     <row r="825">
@@ -8722,7 +8722,7 @@
         </is>
       </c>
       <c r="B825" t="n">
-        <v>8.019310499683237e-07</v>
+        <v>1.603862099936647e-06</v>
       </c>
     </row>
     <row r="826">
@@ -8732,7 +8732,7 @@
         </is>
       </c>
       <c r="B826" t="n">
-        <v>8.019310499683237e-07</v>
+        <v>1.603862099936647e-06</v>
       </c>
     </row>
     <row r="827">
@@ -8742,7 +8742,7 @@
         </is>
       </c>
       <c r="B827" t="n">
-        <v>8.019310499683237e-07</v>
+        <v>1.603862099936647e-06</v>
       </c>
     </row>
     <row r="828">
@@ -8752,7 +8752,7 @@
         </is>
       </c>
       <c r="B828" t="n">
-        <v>8.019310499683237e-07</v>
+        <v>1.603862099936647e-06</v>
       </c>
     </row>
     <row r="829">
@@ -8762,7 +8762,7 @@
         </is>
       </c>
       <c r="B829" t="n">
-        <v>8.019310499683237e-07</v>
+        <v>1.603862099936647e-06</v>
       </c>
     </row>
   </sheetData>
